--- a/JupyterNotebooks/AvgHW/GossF-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -680,22 +632,22 @@
         <v>1.009549869402041</v>
       </c>
       <c r="E3">
+        <v>1.009549869402041</v>
+      </c>
+      <c r="F3">
         <v>1.005145105906757</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0.9999096450096817</v>
+      </c>
+      <c r="H3">
+        <v>1.034788392119574</v>
+      </c>
+      <c r="I3">
+        <v>0.9915374180482408</v>
+      </c>
+      <c r="J3">
         <v>0.9926379822485107</v>
-      </c>
-      <c r="G3">
-        <v>1.034788392119574</v>
-      </c>
-      <c r="H3">
-        <v>0.9915374180482408</v>
-      </c>
-      <c r="I3">
-        <v>0.9999096450096817</v>
-      </c>
-      <c r="J3">
-        <v>1.009549869402041</v>
       </c>
       <c r="K3">
         <v>0.9926379822485107</v>
@@ -728,7 +680,7 @@
         <v>1.005594735455801</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -742,22 +694,22 @@
         <v>1.018061987890342</v>
       </c>
       <c r="E4">
+        <v>1.018061987890342</v>
+      </c>
+      <c r="F4">
         <v>1.010594042399899</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <v>1.000074649135165</v>
+      </c>
+      <c r="H4">
+        <v>1.066965948100107</v>
+      </c>
+      <c r="I4">
+        <v>0.9837597894164486</v>
+      </c>
+      <c r="J4">
         <v>0.9845095129184515</v>
-      </c>
-      <c r="G4">
-        <v>1.066965948100107</v>
-      </c>
-      <c r="H4">
-        <v>0.9837597894164486</v>
-      </c>
-      <c r="I4">
-        <v>1.000074649135165</v>
-      </c>
-      <c r="J4">
-        <v>1.018061987890342</v>
       </c>
       <c r="K4">
         <v>0.9845095129184515</v>
@@ -790,7 +742,7 @@
         <v>1.010660988310069</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -804,22 +756,22 @@
         <v>1.033681632001416</v>
       </c>
       <c r="E5">
+        <v>1.033681632001416</v>
+      </c>
+      <c r="F5">
         <v>1.018176753936587</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <v>0.9999515401272275</v>
+      </c>
+      <c r="H5">
+        <v>1.124612576346047</v>
+      </c>
+      <c r="I5">
+        <v>0.9680647795900041</v>
+      </c>
+      <c r="J5">
         <v>0.9767116085414443</v>
-      </c>
-      <c r="G5">
-        <v>1.124612576346047</v>
-      </c>
-      <c r="H5">
-        <v>0.9680647795900041</v>
-      </c>
-      <c r="I5">
-        <v>0.9999515401272275</v>
-      </c>
-      <c r="J5">
-        <v>1.033681632001416</v>
       </c>
       <c r="K5">
         <v>0.9767116085414443</v>
@@ -834,7 +786,7 @@
         <v>1.025929192969002</v>
       </c>
       <c r="O5">
-        <v>1.006641055176003</v>
+        <v>1.006641055176002</v>
       </c>
       <c r="P5">
         <v>1.009523331493149</v>
@@ -852,7 +804,7 @@
         <v>1.020199815090454</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,31 +812,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9750638460803326</v>
+        <v>0.9750638460803325</v>
       </c>
       <c r="D6">
         <v>1.047816968171457</v>
       </c>
       <c r="E6">
+        <v>1.047816968171457</v>
+      </c>
+      <c r="F6">
         <v>1.023513649639335</v>
       </c>
-      <c r="F6">
-        <v>0.9750638460803326</v>
-      </c>
       <c r="G6">
+        <v>0.9967560094893512</v>
+      </c>
+      <c r="H6">
         <v>1.191060643435945</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.9490925489275779</v>
       </c>
-      <c r="I6">
-        <v>0.9967560094893512</v>
-      </c>
       <c r="J6">
-        <v>1.047816968171457</v>
+        <v>0.9750638460803325</v>
       </c>
       <c r="K6">
-        <v>0.9750638460803326</v>
+        <v>0.9750638460803325</v>
       </c>
       <c r="L6">
         <v>1.023513649639335</v>
@@ -914,7 +866,7 @@
         <v>1.030550610957333</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,43 +874,43 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.002404298021777</v>
+        <v>1.002404298021776</v>
       </c>
       <c r="D7">
         <v>0.9998006516551128</v>
       </c>
       <c r="E7">
-        <v>0.9992850789786706</v>
+        <v>0.9998006516551128</v>
       </c>
       <c r="F7">
-        <v>1.002404298021777</v>
+        <v>0.9992850789786711</v>
       </c>
       <c r="G7">
-        <v>0.9989712151970772</v>
+        <v>1.00003373613476</v>
       </c>
       <c r="H7">
+        <v>0.9989712151970769</v>
+      </c>
+      <c r="I7">
         <v>0.9995562086391644</v>
       </c>
-      <c r="I7">
-        <v>1.00003373613476</v>
-      </c>
       <c r="J7">
-        <v>0.9998006516551128</v>
+        <v>1.002404298021776</v>
       </c>
       <c r="K7">
-        <v>1.002404298021777</v>
+        <v>1.002404298021776</v>
       </c>
       <c r="L7">
-        <v>0.9992850789786706</v>
+        <v>0.9992850789786711</v>
       </c>
       <c r="M7">
-        <v>0.9995428653168916</v>
+        <v>0.999542865316892</v>
       </c>
       <c r="N7">
-        <v>0.9995428653168916</v>
+        <v>0.999542865316892</v>
       </c>
       <c r="O7">
-        <v>0.9995473130909825</v>
+        <v>0.9995473130909828</v>
       </c>
       <c r="P7">
         <v>1.00049667621852</v>
@@ -976,7 +928,7 @@
         <v>1.00000853143776</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,43 +936,43 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.005303480927446</v>
+        <v>1.005303480927447</v>
       </c>
       <c r="D8">
-        <v>1.000861543284915</v>
+        <v>1.000861543284914</v>
       </c>
       <c r="E8">
-        <v>0.9980167828463808</v>
+        <v>1.000861543284914</v>
       </c>
       <c r="F8">
-        <v>1.005303480927446</v>
+        <v>0.9980167828463806</v>
       </c>
       <c r="G8">
-        <v>0.9973468970691649</v>
+        <v>0.9998733277008636</v>
       </c>
       <c r="H8">
-        <v>0.9993820387219056</v>
+        <v>0.9973468970691651</v>
       </c>
       <c r="I8">
-        <v>0.9998733277008641</v>
+        <v>0.9993820387219058</v>
       </c>
       <c r="J8">
-        <v>1.000861543284915</v>
+        <v>1.005303480927447</v>
       </c>
       <c r="K8">
-        <v>1.005303480927446</v>
+        <v>1.005303480927447</v>
       </c>
       <c r="L8">
-        <v>0.9980167828463808</v>
+        <v>0.9980167828463806</v>
       </c>
       <c r="M8">
-        <v>0.999439163065648</v>
+        <v>0.9994391630656473</v>
       </c>
       <c r="N8">
-        <v>0.999439163065648</v>
+        <v>0.9994391630656473</v>
       </c>
       <c r="O8">
-        <v>0.9994201216177339</v>
+        <v>0.9994201216177334</v>
       </c>
       <c r="P8">
         <v>1.001393935686247</v>
@@ -1035,10 +987,10 @@
         <v>1.002371321996547</v>
       </c>
       <c r="T8">
-        <v>1.000130678425113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000130678425112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1052,22 +1004,22 @@
         <v>1.003881370254968</v>
       </c>
       <c r="E9">
+        <v>1.003881370254968</v>
+      </c>
+      <c r="F9">
         <v>0.9972243407458872</v>
       </c>
-      <c r="F9">
+      <c r="G9">
+        <v>0.9993913695893347</v>
+      </c>
+      <c r="H9">
+        <v>0.9964126993379409</v>
+      </c>
+      <c r="I9">
+        <v>0.9998596807509251</v>
+      </c>
+      <c r="J9">
         <v>1.00607071036577</v>
-      </c>
-      <c r="G9">
-        <v>0.9964126993379409</v>
-      </c>
-      <c r="H9">
-        <v>0.9998596807509251</v>
-      </c>
-      <c r="I9">
-        <v>0.9993913695893347</v>
-      </c>
-      <c r="J9">
-        <v>1.003881370254968</v>
       </c>
       <c r="K9">
         <v>1.00607071036577</v>
@@ -1100,7 +1052,7 @@
         <v>1.000473361840804</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1114,22 +1066,22 @@
         <v>1.005827713176583</v>
       </c>
       <c r="E10">
+        <v>1.005827713176583</v>
+      </c>
+      <c r="F10">
         <v>0.9939199156388446</v>
       </c>
-      <c r="F10">
+      <c r="G10">
+        <v>0.9990402291830692</v>
+      </c>
+      <c r="H10">
+        <v>0.9919134572592941</v>
+      </c>
+      <c r="I10">
+        <v>0.9989549987710163</v>
+      </c>
+      <c r="J10">
         <v>1.014877577586833</v>
-      </c>
-      <c r="G10">
-        <v>0.9919134572592941</v>
-      </c>
-      <c r="H10">
-        <v>0.9989549987710163</v>
-      </c>
-      <c r="I10">
-        <v>0.9990402291830692</v>
-      </c>
-      <c r="J10">
-        <v>1.005827713176583</v>
       </c>
       <c r="K10">
         <v>1.014877577586833</v>
@@ -1162,7 +1114,7 @@
         <v>1.000755648602607</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1176,22 +1128,22 @@
         <v>1.017403749352137</v>
       </c>
       <c r="E11">
+        <v>1.017403749352137</v>
+      </c>
+      <c r="F11">
         <v>0.9896610023539382</v>
       </c>
-      <c r="F11">
+      <c r="G11">
+        <v>0.9976368393668171</v>
+      </c>
+      <c r="H11">
+        <v>0.9868163179283931</v>
+      </c>
+      <c r="I11">
+        <v>0.9997124537971589</v>
+      </c>
+      <c r="J11">
         <v>1.021296944539634</v>
-      </c>
-      <c r="G11">
-        <v>0.9868163179283931</v>
-      </c>
-      <c r="H11">
-        <v>0.9997124537971588</v>
-      </c>
-      <c r="I11">
-        <v>0.9976368393668171</v>
-      </c>
-      <c r="J11">
-        <v>1.017403749352137</v>
       </c>
       <c r="K11">
         <v>1.021296944539634</v>
@@ -1224,7 +1176,7 @@
         <v>1.002087884556346</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,34 +1184,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7997830995241434</v>
+        <v>0.7997830995241429</v>
       </c>
       <c r="D12">
-        <v>0.7496650844597289</v>
+        <v>0.7496650844597287</v>
       </c>
       <c r="E12">
-        <v>1.137698033442855</v>
+        <v>0.7496650844597287</v>
       </c>
       <c r="F12">
-        <v>0.7997830995241434</v>
+        <v>1.137698033442856</v>
       </c>
       <c r="G12">
-        <v>0.9597020113045043</v>
+        <v>1.044120691818265</v>
       </c>
       <c r="H12">
+        <v>0.9597020113045045</v>
+      </c>
+      <c r="I12">
         <v>1.008178661707157</v>
       </c>
-      <c r="I12">
-        <v>1.044120691818265</v>
-      </c>
       <c r="J12">
-        <v>0.7496650844597289</v>
+        <v>0.7997830995241429</v>
       </c>
       <c r="K12">
-        <v>0.7997830995241434</v>
+        <v>0.7997830995241429</v>
       </c>
       <c r="L12">
-        <v>1.137698033442855</v>
+        <v>1.137698033442856</v>
       </c>
       <c r="M12">
         <v>0.9436815589512921</v>
@@ -1271,22 +1223,22 @@
         <v>0.9651805932032471</v>
       </c>
       <c r="P12">
-        <v>0.8957154058089092</v>
+        <v>0.8957154058089091</v>
       </c>
       <c r="Q12">
         <v>0.8957154058089092</v>
       </c>
       <c r="R12">
-        <v>0.8717323292377177</v>
+        <v>0.8717323292377176</v>
       </c>
       <c r="S12">
-        <v>0.8717323292377177</v>
+        <v>0.8717323292377176</v>
       </c>
       <c r="T12">
         <v>0.9498579303761089</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1300,22 +1252,22 @@
         <v>1.268981835564235</v>
       </c>
       <c r="E13">
+        <v>1.268981835564235</v>
+      </c>
+      <c r="F13">
         <v>0.830276611624532</v>
       </c>
-      <c r="F13">
+      <c r="G13">
+        <v>0.9406486785693515</v>
+      </c>
+      <c r="H13">
+        <v>1.142429010762399</v>
+      </c>
+      <c r="I13">
+        <v>0.9921217950800018</v>
+      </c>
+      <c r="J13">
         <v>1.212438411798979</v>
-      </c>
-      <c r="G13">
-        <v>1.142429010762398</v>
-      </c>
-      <c r="H13">
-        <v>0.9921217950800019</v>
-      </c>
-      <c r="I13">
-        <v>0.9406486785693514</v>
-      </c>
-      <c r="J13">
-        <v>1.268981835564235</v>
       </c>
       <c r="K13">
         <v>1.212438411798979</v>
@@ -1348,7 +1300,7 @@
         <v>1.064482723899916</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,31 +1308,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.240470240414135</v>
+        <v>0.2404702404141349</v>
       </c>
       <c r="D14">
         <v>3.635942637510909</v>
       </c>
       <c r="E14">
+        <v>3.635942637510909</v>
+      </c>
+      <c r="F14">
         <v>0.4758779848770468</v>
       </c>
-      <c r="F14">
-        <v>0.240470240414135</v>
-      </c>
       <c r="G14">
+        <v>0.4076798692637056</v>
+      </c>
+      <c r="H14">
         <v>0.04375825964634195</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2.166991480852296</v>
       </c>
-      <c r="I14">
-        <v>0.4076798692637058</v>
-      </c>
       <c r="J14">
-        <v>3.635942637510909</v>
+        <v>0.2404702404141349</v>
       </c>
       <c r="K14">
-        <v>0.240470240414135</v>
+        <v>0.2404702404141349</v>
       </c>
       <c r="L14">
         <v>0.4758779848770468</v>
@@ -1410,7 +1362,7 @@
         <v>1.161786745427406</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1424,22 +1376,22 @@
         <v>1.139827550582419</v>
       </c>
       <c r="E15">
+        <v>1.139827550582419</v>
+      </c>
+      <c r="F15">
         <v>0.9237306816719273</v>
       </c>
-      <c r="F15">
+      <c r="G15">
+        <v>0.8973540345668158</v>
+      </c>
+      <c r="H15">
+        <v>0.3732002823117419</v>
+      </c>
+      <c r="I15">
+        <v>1.351062220515084</v>
+      </c>
+      <c r="J15">
         <v>0.8386491562959589</v>
-      </c>
-      <c r="G15">
-        <v>0.3732002823117419</v>
-      </c>
-      <c r="H15">
-        <v>1.351062220515084</v>
-      </c>
-      <c r="I15">
-        <v>0.8973540345668157</v>
-      </c>
-      <c r="J15">
-        <v>1.139827550582419</v>
       </c>
       <c r="K15">
         <v>0.8386491562959589</v>
@@ -1472,7 +1424,7 @@
         <v>0.9206373209906579</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.004216966280962</v>
+        <v>0.8803570771312796</v>
       </c>
       <c r="D16">
-        <v>0.9952012888710973</v>
+        <v>1.13266606723797</v>
       </c>
       <c r="E16">
-        <v>0.9997145052085106</v>
+        <v>1.13266606723797</v>
       </c>
       <c r="F16">
-        <v>1.004216966280962</v>
+        <v>1.095242531899154</v>
       </c>
       <c r="G16">
-        <v>0.9933064491990004</v>
+        <v>1.008616032077354</v>
       </c>
       <c r="H16">
-        <v>0.9996261787578736</v>
+        <v>1.607245341921403</v>
       </c>
       <c r="I16">
-        <v>1.000761828579399</v>
+        <v>0.8386554109977281</v>
       </c>
       <c r="J16">
-        <v>0.9952012888710973</v>
+        <v>0.8803570771312796</v>
       </c>
       <c r="K16">
-        <v>1.004216966280962</v>
+        <v>0.8803570771312796</v>
       </c>
       <c r="L16">
-        <v>0.9997145052085106</v>
+        <v>1.095242531899154</v>
       </c>
       <c r="M16">
-        <v>0.9974578970398039</v>
+        <v>1.113954299568562</v>
       </c>
       <c r="N16">
-        <v>0.9974578970398039</v>
+        <v>1.113954299568562</v>
       </c>
       <c r="O16">
-        <v>0.9981806576124939</v>
+        <v>1.022188003378284</v>
       </c>
       <c r="P16">
-        <v>0.9997109201201898</v>
+        <v>1.036088558756135</v>
       </c>
       <c r="Q16">
-        <v>0.9997109201201898</v>
+        <v>1.036088558756135</v>
       </c>
       <c r="R16">
-        <v>1.000837431660383</v>
+        <v>0.997155688349921</v>
       </c>
       <c r="S16">
-        <v>1.000837431660383</v>
+        <v>0.997155688349921</v>
       </c>
       <c r="T16">
-        <v>0.9988045361494736</v>
+        <v>1.093797076877481</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9974414663356085</v>
+        <v>0.9968148897055098</v>
       </c>
       <c r="D17">
-        <v>1.005127200166364</v>
+        <v>1.041178865559716</v>
       </c>
       <c r="E17">
-        <v>0.9994180783567008</v>
+        <v>1.041178865559716</v>
       </c>
       <c r="F17">
-        <v>0.9974414663356085</v>
+        <v>1.048764406871592</v>
       </c>
       <c r="G17">
-        <v>1.008239703266212</v>
+        <v>1.014662214100375</v>
       </c>
       <c r="H17">
-        <v>0.999768070948635</v>
+        <v>1.383423318000787</v>
       </c>
       <c r="I17">
-        <v>0.999159045820057</v>
+        <v>0.8671430102704046</v>
       </c>
       <c r="J17">
-        <v>1.005127200166364</v>
+        <v>0.9968148897055098</v>
       </c>
       <c r="K17">
-        <v>0.9974414663356085</v>
+        <v>0.9968148897055098</v>
       </c>
       <c r="L17">
-        <v>0.9994180783567008</v>
+        <v>1.048764406871592</v>
       </c>
       <c r="M17">
-        <v>1.002272639261533</v>
+        <v>1.044971636215654</v>
       </c>
       <c r="N17">
-        <v>1.002272639261533</v>
+        <v>1.044971636215654</v>
       </c>
       <c r="O17">
-        <v>1.001437783157233</v>
+        <v>0.9856954275672375</v>
       </c>
       <c r="P17">
-        <v>1.000662248286225</v>
+        <v>1.028919387378939</v>
       </c>
       <c r="Q17">
-        <v>1.000662248286225</v>
+        <v>1.028919387378939</v>
       </c>
       <c r="R17">
-        <v>0.9998570527985706</v>
+        <v>1.020893262960582</v>
       </c>
       <c r="S17">
-        <v>0.9998570527985706</v>
+        <v>1.020893262960582</v>
       </c>
       <c r="T17">
-        <v>1.00152559414893</v>
+        <v>1.058664450751397</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.007165445647784</v>
+        <v>1.225263004960876</v>
       </c>
       <c r="D18">
-        <v>0.9910886276511572</v>
+        <v>0.8634322821107726</v>
       </c>
       <c r="E18">
-        <v>1.002767888970694</v>
+        <v>0.8634322821107726</v>
       </c>
       <c r="F18">
-        <v>1.007165445647784</v>
+        <v>0.9563796899489933</v>
       </c>
       <c r="G18">
-        <v>0.9938949339722025</v>
+        <v>1.026038224033173</v>
       </c>
       <c r="H18">
-        <v>0.9958642254513111</v>
+        <v>0.937745587591214</v>
       </c>
       <c r="I18">
-        <v>1.002147148492731</v>
+        <v>0.9254931262482515</v>
       </c>
       <c r="J18">
-        <v>0.9910886276511572</v>
+        <v>1.225263004960876</v>
       </c>
       <c r="K18">
-        <v>1.007165445647784</v>
+        <v>1.225263004960876</v>
       </c>
       <c r="L18">
-        <v>1.002767888970694</v>
+        <v>0.9563796899489933</v>
       </c>
       <c r="M18">
-        <v>0.9969282583109257</v>
+        <v>0.9099059860298829</v>
       </c>
       <c r="N18">
-        <v>0.9969282583109257</v>
+        <v>0.9099059860298829</v>
       </c>
       <c r="O18">
-        <v>0.9965735806910542</v>
+        <v>0.9151016994360058</v>
       </c>
       <c r="P18">
-        <v>1.000340654089878</v>
+        <v>1.015024992340214</v>
       </c>
       <c r="Q18">
-        <v>1.000340654089878</v>
+        <v>1.015024992340214</v>
       </c>
       <c r="R18">
-        <v>1.002046851979355</v>
+        <v>1.06758449549538</v>
       </c>
       <c r="S18">
-        <v>1.002046851979355</v>
+        <v>1.06758449549538</v>
       </c>
       <c r="T18">
-        <v>0.9988213783643133</v>
+        <v>0.9890586524822136</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1618,306 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.324404140868784</v>
+      </c>
+      <c r="D19">
+        <v>0.8591208969847812</v>
+      </c>
+      <c r="E19">
+        <v>0.8591208969847812</v>
+      </c>
+      <c r="F19">
+        <v>0.9222872344281866</v>
+      </c>
+      <c r="G19">
+        <v>1.026547660083895</v>
+      </c>
+      <c r="H19">
+        <v>0.8996825390640941</v>
+      </c>
+      <c r="I19">
+        <v>0.908821809483677</v>
+      </c>
+      <c r="J19">
+        <v>1.324404140868784</v>
+      </c>
+      <c r="K19">
+        <v>1.324404140868784</v>
+      </c>
+      <c r="L19">
+        <v>0.9222872344281866</v>
+      </c>
+      <c r="M19">
+        <v>0.890704065706484</v>
+      </c>
+      <c r="N19">
+        <v>0.890704065706484</v>
+      </c>
+      <c r="O19">
+        <v>0.896743313632215</v>
+      </c>
+      <c r="P19">
+        <v>1.035270757427251</v>
+      </c>
+      <c r="Q19">
+        <v>1.035270757427251</v>
+      </c>
+      <c r="R19">
+        <v>1.107554103287634</v>
+      </c>
+      <c r="S19">
+        <v>1.107554103287634</v>
+      </c>
+      <c r="T19">
+        <v>0.990144046818903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.004216966280962</v>
+      </c>
+      <c r="D20">
+        <v>0.9952012888710974</v>
+      </c>
+      <c r="E20">
+        <v>0.9952012888710974</v>
+      </c>
+      <c r="F20">
+        <v>0.9997145052085106</v>
+      </c>
+      <c r="G20">
+        <v>1.000761828579399</v>
+      </c>
+      <c r="H20">
+        <v>0.9933064491990006</v>
+      </c>
+      <c r="I20">
+        <v>0.9996261787578732</v>
+      </c>
+      <c r="J20">
+        <v>1.004216966280962</v>
+      </c>
+      <c r="K20">
+        <v>1.004216966280962</v>
+      </c>
+      <c r="L20">
+        <v>0.9997145052085106</v>
+      </c>
+      <c r="M20">
+        <v>0.997457897039804</v>
+      </c>
+      <c r="N20">
+        <v>0.997457897039804</v>
+      </c>
+      <c r="O20">
+        <v>0.9981806576124937</v>
+      </c>
+      <c r="P20">
+        <v>0.9997109201201898</v>
+      </c>
+      <c r="Q20">
+        <v>0.9997109201201898</v>
+      </c>
+      <c r="R20">
+        <v>1.000837431660383</v>
+      </c>
+      <c r="S20">
+        <v>1.000837431660383</v>
+      </c>
+      <c r="T20">
+        <v>0.9988045361494736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9974414663356086</v>
+      </c>
+      <c r="D21">
+        <v>1.005127200166364</v>
+      </c>
+      <c r="E21">
+        <v>1.005127200166364</v>
+      </c>
+      <c r="F21">
+        <v>0.9994180783567008</v>
+      </c>
+      <c r="G21">
+        <v>0.999159045820057</v>
+      </c>
+      <c r="H21">
+        <v>1.008239703266212</v>
+      </c>
+      <c r="I21">
+        <v>0.9997680709486343</v>
+      </c>
+      <c r="J21">
+        <v>0.9974414663356086</v>
+      </c>
+      <c r="K21">
+        <v>0.9974414663356086</v>
+      </c>
+      <c r="L21">
+        <v>0.9994180783567008</v>
+      </c>
+      <c r="M21">
+        <v>1.002272639261533</v>
+      </c>
+      <c r="N21">
+        <v>1.002272639261533</v>
+      </c>
+      <c r="O21">
+        <v>1.001437783157233</v>
+      </c>
+      <c r="P21">
+        <v>1.000662248286225</v>
+      </c>
+      <c r="Q21">
+        <v>1.000662248286225</v>
+      </c>
+      <c r="R21">
+        <v>0.9998570527985706</v>
+      </c>
+      <c r="S21">
+        <v>0.9998570527985706</v>
+      </c>
+      <c r="T21">
+        <v>1.001525594148929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.007165445647783</v>
+      </c>
+      <c r="D22">
+        <v>0.9910886276511568</v>
+      </c>
+      <c r="E22">
+        <v>0.9910886276511568</v>
+      </c>
+      <c r="F22">
+        <v>1.002767888970694</v>
+      </c>
+      <c r="G22">
+        <v>1.002147148492731</v>
+      </c>
+      <c r="H22">
+        <v>0.9938949339722026</v>
+      </c>
+      <c r="I22">
+        <v>0.995864225451311</v>
+      </c>
+      <c r="J22">
+        <v>1.007165445647783</v>
+      </c>
+      <c r="K22">
+        <v>1.007165445647783</v>
+      </c>
+      <c r="L22">
+        <v>1.002767888970694</v>
+      </c>
+      <c r="M22">
+        <v>0.9969282583109255</v>
+      </c>
+      <c r="N22">
+        <v>0.9969282583109255</v>
+      </c>
+      <c r="O22">
+        <v>0.9965735806910541</v>
+      </c>
+      <c r="P22">
+        <v>1.000340654089878</v>
+      </c>
+      <c r="Q22">
+        <v>1.000340654089878</v>
+      </c>
+      <c r="R22">
+        <v>1.002046851979354</v>
+      </c>
+      <c r="S22">
+        <v>1.002046851979354</v>
+      </c>
+      <c r="T22">
+        <v>0.9988213783643132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.021554414375299</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>0.959140592634957</v>
       </c>
-      <c r="E19">
+      <c r="E23">
+        <v>0.959140592634957</v>
+      </c>
+      <c r="F23">
         <v>1.008737280630876</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>1.008482651634279</v>
+      </c>
+      <c r="H23">
+        <v>0.9642719728820629</v>
+      </c>
+      <c r="I23">
+        <v>0.9907299392810377</v>
+      </c>
+      <c r="J23">
         <v>1.021554414375299</v>
       </c>
-      <c r="G19">
-        <v>0.9642719728820629</v>
-      </c>
-      <c r="H19">
-        <v>0.9907299392810377</v>
-      </c>
-      <c r="I19">
-        <v>1.008482651634279</v>
-      </c>
-      <c r="J19">
-        <v>0.959140592634957</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.021554414375299</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.008737280630876</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9839389366329163</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9839389366329163</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9862026041822901</v>
       </c>
-      <c r="P19">
-        <v>0.9964774292137107</v>
-      </c>
-      <c r="Q19">
-        <v>0.9964774292137107</v>
-      </c>
-      <c r="R19">
-        <v>1.002746675504108</v>
-      </c>
-      <c r="S19">
-        <v>1.002746675504108</v>
-      </c>
-      <c r="T19">
-        <v>0.9921528085730854</v>
+      <c r="P23">
+        <v>0.9964774292137104</v>
+      </c>
+      <c r="Q23">
+        <v>0.9964774292137104</v>
+      </c>
+      <c r="R23">
+        <v>1.002746675504107</v>
+      </c>
+      <c r="S23">
+        <v>1.002746675504107</v>
+      </c>
+      <c r="T23">
+        <v>0.9921528085730852</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9926379822485107</v>
+        <v>1.267623904252883</v>
       </c>
       <c r="D3">
-        <v>1.009549869402041</v>
+        <v>0.8477808095912102</v>
       </c>
       <c r="E3">
-        <v>1.009549869402041</v>
+        <v>0.8477808095912102</v>
       </c>
       <c r="F3">
-        <v>1.005145105906757</v>
+        <v>0.9498403545749273</v>
       </c>
       <c r="G3">
-        <v>0.9999096450096817</v>
+        <v>1.028978949899135</v>
       </c>
       <c r="H3">
-        <v>1.034788392119574</v>
+        <v>0.9505008452391173</v>
       </c>
       <c r="I3">
-        <v>0.9915374180482408</v>
+        <v>0.9063496410389065</v>
       </c>
       <c r="J3">
-        <v>0.9926379822485107</v>
+        <v>1.267623904252883</v>
       </c>
       <c r="K3">
-        <v>0.9926379822485107</v>
+        <v>1.267623904252883</v>
       </c>
       <c r="L3">
-        <v>1.005145105906757</v>
+        <v>0.9498403545749273</v>
       </c>
       <c r="M3">
-        <v>1.007347487654399</v>
+        <v>0.8988105820830687</v>
       </c>
       <c r="N3">
-        <v>1.007347487654399</v>
+        <v>0.8988105820830687</v>
       </c>
       <c r="O3">
-        <v>1.002077464452346</v>
+        <v>0.9013236017350147</v>
       </c>
       <c r="P3">
-        <v>1.002444319185769</v>
+        <v>1.021748356139674</v>
       </c>
       <c r="Q3">
-        <v>1.002444319185769</v>
+        <v>1.021748356139673</v>
       </c>
       <c r="R3">
-        <v>0.9999927349514547</v>
+        <v>1.083217243167976</v>
       </c>
       <c r="S3">
-        <v>0.9999927349514547</v>
+        <v>1.083217243167976</v>
       </c>
       <c r="T3">
-        <v>1.005594735455801</v>
+        <v>0.9918457507660299</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9845095129184515</v>
+        <v>1.247076031779357</v>
       </c>
       <c r="D4">
-        <v>1.018061987890342</v>
+        <v>0.8502591955266513</v>
       </c>
       <c r="E4">
-        <v>1.018061987890342</v>
+        <v>0.8502591955266513</v>
       </c>
       <c r="F4">
-        <v>1.010594042399899</v>
+        <v>0.9537450287094633</v>
       </c>
       <c r="G4">
-        <v>1.000074649135165</v>
+        <v>1.028274584516398</v>
       </c>
       <c r="H4">
-        <v>1.066965948100107</v>
+        <v>0.9435612647255238</v>
       </c>
       <c r="I4">
-        <v>0.9837597894164486</v>
+        <v>0.9152058739025347</v>
       </c>
       <c r="J4">
-        <v>0.9845095129184515</v>
+        <v>1.247076031779357</v>
       </c>
       <c r="K4">
-        <v>0.9845095129184515</v>
+        <v>1.247076031779357</v>
       </c>
       <c r="L4">
-        <v>1.010594042399899</v>
+        <v>0.9537450287094633</v>
       </c>
       <c r="M4">
-        <v>1.01432801514512</v>
+        <v>0.9020021121180573</v>
       </c>
       <c r="N4">
-        <v>1.01432801514512</v>
+        <v>0.9020021121180573</v>
       </c>
       <c r="O4">
-        <v>1.004138606568896</v>
+        <v>0.9064033660462164</v>
       </c>
       <c r="P4">
-        <v>1.004388514402897</v>
+        <v>1.017026752005157</v>
       </c>
       <c r="Q4">
-        <v>1.004388514402897</v>
+        <v>1.017026752005157</v>
       </c>
       <c r="R4">
-        <v>0.9994187640317859</v>
+        <v>1.074539071948707</v>
       </c>
       <c r="S4">
-        <v>0.9994187640317859</v>
+        <v>1.074539071948707</v>
       </c>
       <c r="T4">
-        <v>1.010660988310069</v>
+        <v>0.9896869965266548</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9767116085414443</v>
+        <v>1.307442629428572</v>
       </c>
       <c r="D5">
-        <v>1.033681632001416</v>
+        <v>0.8451024057010793</v>
       </c>
       <c r="E5">
-        <v>1.033681632001416</v>
+        <v>0.8451024057010793</v>
       </c>
       <c r="F5">
-        <v>1.018176753936587</v>
+        <v>0.9415718769002712</v>
       </c>
       <c r="G5">
-        <v>0.9999515401272275</v>
+        <v>1.029943226927225</v>
       </c>
       <c r="H5">
-        <v>1.124612576346047</v>
+        <v>0.9614508491646903</v>
       </c>
       <c r="I5">
-        <v>0.9680647795900041</v>
+        <v>0.8903195538652284</v>
       </c>
       <c r="J5">
-        <v>0.9767116085414443</v>
+        <v>1.307442629428572</v>
       </c>
       <c r="K5">
-        <v>0.9767116085414443</v>
+        <v>1.307442629428572</v>
       </c>
       <c r="L5">
-        <v>1.018176753936587</v>
+        <v>0.9415718769002712</v>
       </c>
       <c r="M5">
-        <v>1.025929192969002</v>
+        <v>0.8933371413006752</v>
       </c>
       <c r="N5">
-        <v>1.025929192969002</v>
+        <v>0.8933371413006752</v>
       </c>
       <c r="O5">
-        <v>1.006641055176002</v>
+        <v>0.892331278822193</v>
       </c>
       <c r="P5">
-        <v>1.009523331493149</v>
+        <v>1.031372304009974</v>
       </c>
       <c r="Q5">
-        <v>1.009523331493149</v>
+        <v>1.031372304009974</v>
       </c>
       <c r="R5">
-        <v>1.001320400755223</v>
+        <v>1.100389885364623</v>
       </c>
       <c r="S5">
-        <v>1.001320400755223</v>
+        <v>1.100389885364623</v>
       </c>
       <c r="T5">
-        <v>1.020199815090454</v>
+        <v>0.9959717569978442</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9750638460803325</v>
+        <v>1.345567950420455</v>
       </c>
       <c r="D6">
-        <v>1.047816968171457</v>
+        <v>0.8450136609715914</v>
       </c>
       <c r="E6">
-        <v>1.047816968171457</v>
+        <v>0.8450136609715914</v>
       </c>
       <c r="F6">
-        <v>1.023513649639335</v>
+        <v>0.9328371395454538</v>
       </c>
       <c r="G6">
-        <v>0.9967560094893512</v>
+        <v>1.03039952778409</v>
       </c>
       <c r="H6">
-        <v>1.191060643435945</v>
+        <v>0.9690240966664783</v>
       </c>
       <c r="I6">
-        <v>0.9490925489275779</v>
+        <v>0.8762904218977273</v>
       </c>
       <c r="J6">
-        <v>0.9750638460803325</v>
+        <v>1.345567950420455</v>
       </c>
       <c r="K6">
-        <v>0.9750638460803325</v>
+        <v>1.345567950420455</v>
       </c>
       <c r="L6">
-        <v>1.023513649639335</v>
+        <v>0.9328371395454538</v>
       </c>
       <c r="M6">
-        <v>1.035665308905396</v>
+        <v>0.8889254002585225</v>
       </c>
       <c r="N6">
-        <v>1.035665308905396</v>
+        <v>0.8889254002585225</v>
       </c>
       <c r="O6">
-        <v>1.006807722246123</v>
+        <v>0.8847137408049242</v>
       </c>
       <c r="P6">
-        <v>1.015464821297041</v>
+        <v>1.041139583645833</v>
       </c>
       <c r="Q6">
-        <v>1.015464821297041</v>
+        <v>1.041139583645833</v>
       </c>
       <c r="R6">
-        <v>1.005364577492864</v>
+        <v>1.117246675339489</v>
       </c>
       <c r="S6">
-        <v>1.005364577492864</v>
+        <v>1.117246675339489</v>
       </c>
       <c r="T6">
-        <v>1.030550610957333</v>
+        <v>0.9998554662142994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.002404298021776</v>
+        <v>0.6219309763036097</v>
       </c>
       <c r="D7">
-        <v>0.9998006516551128</v>
+        <v>1.306488216165257</v>
       </c>
       <c r="E7">
-        <v>0.9998006516551128</v>
+        <v>1.306488216165257</v>
       </c>
       <c r="F7">
-        <v>0.9992850789786711</v>
+        <v>1.175827232589331</v>
       </c>
       <c r="G7">
-        <v>1.00003373613476</v>
+        <v>0.991231976495186</v>
       </c>
       <c r="H7">
-        <v>0.9989712151970769</v>
+        <v>1.910979662037557</v>
       </c>
       <c r="I7">
-        <v>0.9995562086391644</v>
+        <v>0.8386934224921618</v>
       </c>
       <c r="J7">
-        <v>1.002404298021776</v>
+        <v>0.6219309763036097</v>
       </c>
       <c r="K7">
-        <v>1.002404298021776</v>
+        <v>0.6219309763036097</v>
       </c>
       <c r="L7">
-        <v>0.9992850789786711</v>
+        <v>1.175827232589331</v>
       </c>
       <c r="M7">
-        <v>0.999542865316892</v>
+        <v>1.241157724377294</v>
       </c>
       <c r="N7">
-        <v>0.999542865316892</v>
+        <v>1.241157724377294</v>
       </c>
       <c r="O7">
-        <v>0.9995473130909828</v>
+        <v>1.10700295708225</v>
       </c>
       <c r="P7">
-        <v>1.00049667621852</v>
+        <v>1.034748808352733</v>
       </c>
       <c r="Q7">
-        <v>1.00049667621852</v>
+        <v>1.034748808352733</v>
       </c>
       <c r="R7">
-        <v>1.000973581669334</v>
+        <v>0.931544350340452</v>
       </c>
       <c r="S7">
-        <v>1.000973581669334</v>
+        <v>0.931544350340452</v>
       </c>
       <c r="T7">
-        <v>1.00000853143776</v>
+        <v>1.14085858101385</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.005303480927447</v>
+        <v>0.6309581088817445</v>
       </c>
       <c r="D8">
-        <v>1.000861543284914</v>
+        <v>1.313038111058897</v>
       </c>
       <c r="E8">
-        <v>1.000861543284914</v>
+        <v>1.313038111058897</v>
       </c>
       <c r="F8">
-        <v>0.9980167828463806</v>
+        <v>1.170963114224045</v>
       </c>
       <c r="G8">
-        <v>0.9998733277008636</v>
+        <v>0.9899176364499446</v>
       </c>
       <c r="H8">
-        <v>0.9973468970691651</v>
+        <v>1.900281771655763</v>
       </c>
       <c r="I8">
-        <v>0.9993820387219058</v>
+        <v>0.8404820857185005</v>
       </c>
       <c r="J8">
-        <v>1.005303480927447</v>
+        <v>0.6309581088817445</v>
       </c>
       <c r="K8">
-        <v>1.005303480927447</v>
+        <v>0.6309581088817445</v>
       </c>
       <c r="L8">
-        <v>0.9980167828463806</v>
+        <v>1.170963114224045</v>
       </c>
       <c r="M8">
-        <v>0.9994391630656473</v>
+        <v>1.242000612641471</v>
       </c>
       <c r="N8">
-        <v>0.9994391630656473</v>
+        <v>1.242000612641471</v>
       </c>
       <c r="O8">
-        <v>0.9994201216177334</v>
+        <v>1.108161103667147</v>
       </c>
       <c r="P8">
-        <v>1.001393935686247</v>
+        <v>1.038319778054896</v>
       </c>
       <c r="Q8">
-        <v>1.001393935686247</v>
+        <v>1.038319778054896</v>
       </c>
       <c r="R8">
-        <v>1.002371321996547</v>
+        <v>0.9364793607616079</v>
       </c>
       <c r="S8">
-        <v>1.002371321996547</v>
+        <v>0.9364793607616079</v>
       </c>
       <c r="T8">
-        <v>1.000130678425112</v>
+        <v>1.140940137998149</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00607071036577</v>
+        <v>0.6412182806166583</v>
       </c>
       <c r="D9">
-        <v>1.003881370254968</v>
+        <v>1.311969996332428</v>
       </c>
       <c r="E9">
-        <v>1.003881370254968</v>
+        <v>1.311969996332428</v>
       </c>
       <c r="F9">
-        <v>0.9972243407458872</v>
+        <v>1.167304844590914</v>
       </c>
       <c r="G9">
-        <v>0.9993913695893347</v>
+        <v>0.9895875467981849</v>
       </c>
       <c r="H9">
-        <v>0.9964126993379409</v>
+        <v>1.891310742830009</v>
       </c>
       <c r="I9">
-        <v>0.9998596807509251</v>
+        <v>0.8405284937967153</v>
       </c>
       <c r="J9">
-        <v>1.00607071036577</v>
+        <v>0.6412182806166583</v>
       </c>
       <c r="K9">
-        <v>1.00607071036577</v>
+        <v>0.6412182806166583</v>
       </c>
       <c r="L9">
-        <v>0.9972243407458872</v>
+        <v>1.167304844590914</v>
       </c>
       <c r="M9">
-        <v>1.000552855500427</v>
+        <v>1.239637420461671</v>
       </c>
       <c r="N9">
-        <v>1.000552855500427</v>
+        <v>1.239637420461671</v>
       </c>
       <c r="O9">
-        <v>1.000321797250593</v>
+        <v>1.106601111573353</v>
       </c>
       <c r="P9">
-        <v>1.002392140455542</v>
+        <v>1.040164373846667</v>
       </c>
       <c r="Q9">
-        <v>1.002392140455542</v>
+        <v>1.040164373846667</v>
       </c>
       <c r="R9">
-        <v>1.003311782933099</v>
+        <v>0.9404278505391646</v>
       </c>
       <c r="S9">
-        <v>1.003311782933099</v>
+        <v>0.9404278505391646</v>
       </c>
       <c r="T9">
-        <v>1.000473361840804</v>
+        <v>1.140319984160818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.014877577586833</v>
+        <v>0.6533301028775969</v>
       </c>
       <c r="D10">
-        <v>1.005827713176583</v>
+        <v>1.359013946071301</v>
       </c>
       <c r="E10">
-        <v>1.005827713176583</v>
+        <v>1.359013946071301</v>
       </c>
       <c r="F10">
-        <v>0.9939199156388446</v>
+        <v>1.152072406836917</v>
       </c>
       <c r="G10">
-        <v>0.9990402291830692</v>
+        <v>0.9810359649000274</v>
       </c>
       <c r="H10">
-        <v>0.9919134572592941</v>
+        <v>1.86001395410939</v>
       </c>
       <c r="I10">
-        <v>0.9989549987710163</v>
+        <v>0.8545295446378854</v>
       </c>
       <c r="J10">
-        <v>1.014877577586833</v>
+        <v>0.6533301028775969</v>
       </c>
       <c r="K10">
-        <v>1.014877577586833</v>
+        <v>0.6533301028775969</v>
       </c>
       <c r="L10">
-        <v>0.9939199156388446</v>
+        <v>1.152072406836917</v>
       </c>
       <c r="M10">
-        <v>0.9998738144077139</v>
+        <v>1.255543176454109</v>
       </c>
       <c r="N10">
-        <v>0.9998738144077139</v>
+        <v>1.255543176454109</v>
       </c>
       <c r="O10">
-        <v>0.9995675425288147</v>
+        <v>1.121871965848701</v>
       </c>
       <c r="P10">
-        <v>1.004875068800754</v>
+        <v>1.054805485261938</v>
       </c>
       <c r="Q10">
-        <v>1.004875068800754</v>
+        <v>1.054805485261938</v>
       </c>
       <c r="R10">
-        <v>1.007375695997274</v>
+        <v>0.9544366396658528</v>
       </c>
       <c r="S10">
-        <v>1.007375695997274</v>
+        <v>0.9544366396658528</v>
       </c>
       <c r="T10">
-        <v>1.000755648602607</v>
+        <v>1.143332653238853</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.021296944539634</v>
+        <v>0.989305322038683</v>
       </c>
       <c r="D11">
-        <v>1.017403749352137</v>
+        <v>1.010403626782295</v>
       </c>
       <c r="E11">
-        <v>1.017403749352137</v>
+        <v>1.010403626782295</v>
       </c>
       <c r="F11">
-        <v>0.9896610023539382</v>
+        <v>1.006274641959758</v>
       </c>
       <c r="G11">
-        <v>0.9976368393668171</v>
+        <v>1.000197007418612</v>
       </c>
       <c r="H11">
-        <v>0.9868163179283931</v>
+        <v>1.040420257879107</v>
       </c>
       <c r="I11">
-        <v>0.9997124537971589</v>
+        <v>0.99064246943831</v>
       </c>
       <c r="J11">
-        <v>1.021296944539634</v>
+        <v>0.989305322038683</v>
       </c>
       <c r="K11">
-        <v>1.021296944539634</v>
+        <v>0.989305322038683</v>
       </c>
       <c r="L11">
-        <v>0.9896610023539382</v>
+        <v>1.006274641959758</v>
       </c>
       <c r="M11">
-        <v>1.003532375853038</v>
+        <v>1.008339134371026</v>
       </c>
       <c r="N11">
-        <v>1.003532375853038</v>
+        <v>1.008339134371026</v>
       </c>
       <c r="O11">
-        <v>1.002259068501078</v>
+        <v>1.002440246060121</v>
       </c>
       <c r="P11">
-        <v>1.00945389874857</v>
+        <v>1.001994530260245</v>
       </c>
       <c r="Q11">
-        <v>1.00945389874857</v>
+        <v>1.001994530260245</v>
       </c>
       <c r="R11">
-        <v>1.012414660196336</v>
+        <v>0.9988222282048547</v>
       </c>
       <c r="S11">
-        <v>1.012414660196336</v>
+        <v>0.9988222282048547</v>
       </c>
       <c r="T11">
-        <v>1.002087884556346</v>
+        <v>1.006207220919461</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7997830995241429</v>
+        <v>0.9938856392334231</v>
       </c>
       <c r="D12">
-        <v>0.7496650844597287</v>
+        <v>1.007426729687876</v>
       </c>
       <c r="E12">
-        <v>0.7496650844597287</v>
+        <v>1.007426729687876</v>
       </c>
       <c r="F12">
-        <v>1.137698033442856</v>
+        <v>1.003350199008055</v>
       </c>
       <c r="G12">
-        <v>1.044120691818265</v>
+        <v>0.9997184345833958</v>
       </c>
       <c r="H12">
-        <v>0.9597020113045045</v>
+        <v>1.020115741717492</v>
       </c>
       <c r="I12">
-        <v>1.008178661707157</v>
+        <v>0.9957966711717808</v>
       </c>
       <c r="J12">
-        <v>0.7997830995241429</v>
+        <v>0.9938856392334231</v>
       </c>
       <c r="K12">
-        <v>0.7997830995241429</v>
+        <v>0.9938856392334231</v>
       </c>
       <c r="L12">
-        <v>1.137698033442856</v>
+        <v>1.003350199008055</v>
       </c>
       <c r="M12">
-        <v>0.9436815589512921</v>
+        <v>1.005388464347966</v>
       </c>
       <c r="N12">
-        <v>0.9436815589512921</v>
+        <v>1.005388464347966</v>
       </c>
       <c r="O12">
-        <v>0.9651805932032471</v>
+        <v>1.002191199955904</v>
       </c>
       <c r="P12">
-        <v>0.8957154058089091</v>
+        <v>1.001554189309785</v>
       </c>
       <c r="Q12">
-        <v>0.8957154058089092</v>
+        <v>1.001554189309785</v>
       </c>
       <c r="R12">
-        <v>0.8717323292377176</v>
+        <v>0.9996370517906945</v>
       </c>
       <c r="S12">
-        <v>0.8717323292377176</v>
+        <v>0.9996370517906945</v>
       </c>
       <c r="T12">
-        <v>0.9498579303761089</v>
+        <v>1.003382235900337</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.212438411798979</v>
+        <v>0.9746929723781538</v>
       </c>
       <c r="D13">
-        <v>1.268981835564235</v>
+        <v>1.037459698424261</v>
       </c>
       <c r="E13">
-        <v>1.268981835564235</v>
+        <v>1.037459698424261</v>
       </c>
       <c r="F13">
-        <v>0.830276611624532</v>
+        <v>1.00966397898655</v>
       </c>
       <c r="G13">
-        <v>0.9406486785693515</v>
+        <v>0.9960948103928955</v>
       </c>
       <c r="H13">
-        <v>1.142429010762399</v>
+        <v>1.062305913460125</v>
       </c>
       <c r="I13">
-        <v>0.9921217950800018</v>
+        <v>0.9918807261672216</v>
       </c>
       <c r="J13">
-        <v>1.212438411798979</v>
+        <v>0.9746929723781538</v>
       </c>
       <c r="K13">
-        <v>1.212438411798979</v>
+        <v>0.9746929723781538</v>
       </c>
       <c r="L13">
-        <v>0.830276611624532</v>
+        <v>1.00966397898655</v>
       </c>
       <c r="M13">
-        <v>1.049629223594384</v>
+        <v>1.023561838705406</v>
       </c>
       <c r="N13">
-        <v>1.049629223594384</v>
+        <v>1.023561838705406</v>
       </c>
       <c r="O13">
-        <v>1.030460080756256</v>
+        <v>1.013001467859344</v>
       </c>
       <c r="P13">
-        <v>1.103898952995915</v>
+        <v>1.007272216596321</v>
       </c>
       <c r="Q13">
-        <v>1.103898952995915</v>
+        <v>1.007272216596322</v>
       </c>
       <c r="R13">
-        <v>1.131033817696681</v>
+        <v>0.9991274055417797</v>
       </c>
       <c r="S13">
-        <v>1.131033817696681</v>
+        <v>0.9991274055417797</v>
       </c>
       <c r="T13">
-        <v>1.064482723899916</v>
+        <v>1.012016349968201</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.2404702404141349</v>
+        <v>0.9812644132309228</v>
       </c>
       <c r="D14">
-        <v>3.635942637510909</v>
+        <v>1.024512325554363</v>
       </c>
       <c r="E14">
-        <v>3.635942637510909</v>
+        <v>1.024512325554363</v>
       </c>
       <c r="F14">
-        <v>0.4758779848770468</v>
+        <v>1.013756717290583</v>
       </c>
       <c r="G14">
-        <v>0.4076798692637056</v>
+        <v>1.000214015705292</v>
       </c>
       <c r="H14">
-        <v>0.04375825964634195</v>
+        <v>1.092966054985522</v>
       </c>
       <c r="I14">
-        <v>2.166991480852296</v>
+        <v>0.9765105697391802</v>
       </c>
       <c r="J14">
-        <v>0.2404702404141349</v>
+        <v>0.9812644132309228</v>
       </c>
       <c r="K14">
-        <v>0.2404702404141349</v>
+        <v>0.9812644132309228</v>
       </c>
       <c r="L14">
-        <v>0.4758779848770468</v>
+        <v>1.013756717290583</v>
       </c>
       <c r="M14">
-        <v>2.055910311193978</v>
+        <v>1.019134521422473</v>
       </c>
       <c r="N14">
-        <v>2.055910311193978</v>
+        <v>1.019134521422473</v>
       </c>
       <c r="O14">
-        <v>2.09293736774675</v>
+        <v>1.004926537528042</v>
       </c>
       <c r="P14">
-        <v>1.45076362093403</v>
+        <v>1.006511152025289</v>
       </c>
       <c r="Q14">
-        <v>1.45076362093403</v>
+        <v>1.006511152025289</v>
       </c>
       <c r="R14">
-        <v>1.148190275804056</v>
+        <v>1.000199467326698</v>
       </c>
       <c r="S14">
-        <v>1.148190275804056</v>
+        <v>1.000199467326698</v>
       </c>
       <c r="T14">
-        <v>1.161786745427406</v>
+        <v>1.014870682750977</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8386491562959589</v>
+        <v>0.9926379822485107</v>
       </c>
       <c r="D15">
-        <v>1.139827550582419</v>
+        <v>1.009549869402041</v>
       </c>
       <c r="E15">
-        <v>1.139827550582419</v>
+        <v>1.009549869402041</v>
       </c>
       <c r="F15">
-        <v>0.9237306816719273</v>
+        <v>1.005145105906757</v>
       </c>
       <c r="G15">
-        <v>0.8973540345668158</v>
+        <v>0.9999096450096817</v>
       </c>
       <c r="H15">
-        <v>0.3732002823117419</v>
+        <v>1.034788392119574</v>
       </c>
       <c r="I15">
-        <v>1.351062220515084</v>
+        <v>0.9915374180482408</v>
       </c>
       <c r="J15">
-        <v>0.8386491562959589</v>
+        <v>0.9926379822485107</v>
       </c>
       <c r="K15">
-        <v>0.8386491562959589</v>
+        <v>0.9926379822485107</v>
       </c>
       <c r="L15">
-        <v>0.9237306816719273</v>
+        <v>1.005145105906757</v>
       </c>
       <c r="M15">
-        <v>1.031779116127173</v>
+        <v>1.007347487654399</v>
       </c>
       <c r="N15">
-        <v>1.031779116127173</v>
+        <v>1.007347487654399</v>
       </c>
       <c r="O15">
-        <v>1.13820681758981</v>
+        <v>1.002077464452346</v>
       </c>
       <c r="P15">
-        <v>0.967402462850102</v>
+        <v>1.002444319185769</v>
       </c>
       <c r="Q15">
-        <v>0.9674024628501018</v>
+        <v>1.002444319185769</v>
       </c>
       <c r="R15">
-        <v>0.9352141362115661</v>
+        <v>0.9999927349514547</v>
       </c>
       <c r="S15">
-        <v>0.9352141362115661</v>
+        <v>0.9999927349514547</v>
       </c>
       <c r="T15">
-        <v>0.9206373209906579</v>
+        <v>1.005594735455801</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8803570771312796</v>
+        <v>0.9845095129184515</v>
       </c>
       <c r="D16">
-        <v>1.13266606723797</v>
+        <v>1.018061987890342</v>
       </c>
       <c r="E16">
-        <v>1.13266606723797</v>
+        <v>1.018061987890342</v>
       </c>
       <c r="F16">
-        <v>1.095242531899154</v>
+        <v>1.010594042399899</v>
       </c>
       <c r="G16">
-        <v>1.008616032077354</v>
+        <v>1.000074649135165</v>
       </c>
       <c r="H16">
-        <v>1.607245341921403</v>
+        <v>1.066965948100107</v>
       </c>
       <c r="I16">
-        <v>0.8386554109977281</v>
+        <v>0.9837597894164486</v>
       </c>
       <c r="J16">
-        <v>0.8803570771312796</v>
+        <v>0.9845095129184515</v>
       </c>
       <c r="K16">
-        <v>0.8803570771312796</v>
+        <v>0.9845095129184515</v>
       </c>
       <c r="L16">
-        <v>1.095242531899154</v>
+        <v>1.010594042399899</v>
       </c>
       <c r="M16">
-        <v>1.113954299568562</v>
+        <v>1.01432801514512</v>
       </c>
       <c r="N16">
-        <v>1.113954299568562</v>
+        <v>1.01432801514512</v>
       </c>
       <c r="O16">
-        <v>1.022188003378284</v>
+        <v>1.004138606568896</v>
       </c>
       <c r="P16">
-        <v>1.036088558756135</v>
+        <v>1.004388514402897</v>
       </c>
       <c r="Q16">
-        <v>1.036088558756135</v>
+        <v>1.004388514402897</v>
       </c>
       <c r="R16">
-        <v>0.997155688349921</v>
+        <v>0.9994187640317859</v>
       </c>
       <c r="S16">
-        <v>0.997155688349921</v>
+        <v>0.9994187640317859</v>
       </c>
       <c r="T16">
-        <v>1.093797076877481</v>
+        <v>1.010660988310069</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9968148897055098</v>
+        <v>0.9767116085414443</v>
       </c>
       <c r="D17">
-        <v>1.041178865559716</v>
+        <v>1.033681632001416</v>
       </c>
       <c r="E17">
-        <v>1.041178865559716</v>
+        <v>1.033681632001416</v>
       </c>
       <c r="F17">
-        <v>1.048764406871592</v>
+        <v>1.018176753936587</v>
       </c>
       <c r="G17">
-        <v>1.014662214100375</v>
+        <v>0.9999515401272275</v>
       </c>
       <c r="H17">
-        <v>1.383423318000787</v>
+        <v>1.124612576346047</v>
       </c>
       <c r="I17">
-        <v>0.8671430102704046</v>
+        <v>0.9680647795900041</v>
       </c>
       <c r="J17">
-        <v>0.9968148897055098</v>
+        <v>0.9767116085414443</v>
       </c>
       <c r="K17">
-        <v>0.9968148897055098</v>
+        <v>0.9767116085414443</v>
       </c>
       <c r="L17">
-        <v>1.048764406871592</v>
+        <v>1.018176753936587</v>
       </c>
       <c r="M17">
-        <v>1.044971636215654</v>
+        <v>1.025929192969002</v>
       </c>
       <c r="N17">
-        <v>1.044971636215654</v>
+        <v>1.025929192969002</v>
       </c>
       <c r="O17">
-        <v>0.9856954275672375</v>
+        <v>1.006641055176002</v>
       </c>
       <c r="P17">
-        <v>1.028919387378939</v>
+        <v>1.009523331493149</v>
       </c>
       <c r="Q17">
-        <v>1.028919387378939</v>
+        <v>1.009523331493149</v>
       </c>
       <c r="R17">
-        <v>1.020893262960582</v>
+        <v>1.001320400755223</v>
       </c>
       <c r="S17">
-        <v>1.020893262960582</v>
+        <v>1.001320400755223</v>
       </c>
       <c r="T17">
-        <v>1.058664450751397</v>
+        <v>1.020199815090454</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.225263004960876</v>
+        <v>0.9750638460803325</v>
       </c>
       <c r="D18">
-        <v>0.8634322821107726</v>
+        <v>1.047816968171457</v>
       </c>
       <c r="E18">
-        <v>0.8634322821107726</v>
+        <v>1.047816968171457</v>
       </c>
       <c r="F18">
-        <v>0.9563796899489933</v>
+        <v>1.023513649639335</v>
       </c>
       <c r="G18">
-        <v>1.026038224033173</v>
+        <v>0.9967560094893512</v>
       </c>
       <c r="H18">
-        <v>0.937745587591214</v>
+        <v>1.191060643435945</v>
       </c>
       <c r="I18">
-        <v>0.9254931262482515</v>
+        <v>0.9490925489275779</v>
       </c>
       <c r="J18">
-        <v>1.225263004960876</v>
+        <v>0.9750638460803325</v>
       </c>
       <c r="K18">
-        <v>1.225263004960876</v>
+        <v>0.9750638460803325</v>
       </c>
       <c r="L18">
-        <v>0.9563796899489933</v>
+        <v>1.023513649639335</v>
       </c>
       <c r="M18">
-        <v>0.9099059860298829</v>
+        <v>1.035665308905396</v>
       </c>
       <c r="N18">
-        <v>0.9099059860298829</v>
+        <v>1.035665308905396</v>
       </c>
       <c r="O18">
-        <v>0.9151016994360058</v>
+        <v>1.006807722246123</v>
       </c>
       <c r="P18">
-        <v>1.015024992340214</v>
+        <v>1.015464821297041</v>
       </c>
       <c r="Q18">
-        <v>1.015024992340214</v>
+        <v>1.015464821297041</v>
       </c>
       <c r="R18">
-        <v>1.06758449549538</v>
+        <v>1.005364577492864</v>
       </c>
       <c r="S18">
-        <v>1.06758449549538</v>
+        <v>1.005364577492864</v>
       </c>
       <c r="T18">
-        <v>0.9890586524822136</v>
+        <v>1.030550610957333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.324404140868784</v>
+        <v>1.002404298021776</v>
       </c>
       <c r="D19">
-        <v>0.8591208969847812</v>
+        <v>0.9998006516551128</v>
       </c>
       <c r="E19">
-        <v>0.8591208969847812</v>
+        <v>0.9998006516551128</v>
       </c>
       <c r="F19">
-        <v>0.9222872344281866</v>
+        <v>0.9992850789786711</v>
       </c>
       <c r="G19">
-        <v>1.026547660083895</v>
+        <v>1.00003373613476</v>
       </c>
       <c r="H19">
-        <v>0.8996825390640941</v>
+        <v>0.9989712151970769</v>
       </c>
       <c r="I19">
-        <v>0.908821809483677</v>
+        <v>0.9995562086391644</v>
       </c>
       <c r="J19">
-        <v>1.324404140868784</v>
+        <v>1.002404298021776</v>
       </c>
       <c r="K19">
-        <v>1.324404140868784</v>
+        <v>1.002404298021776</v>
       </c>
       <c r="L19">
-        <v>0.9222872344281866</v>
+        <v>0.9992850789786711</v>
       </c>
       <c r="M19">
-        <v>0.890704065706484</v>
+        <v>0.999542865316892</v>
       </c>
       <c r="N19">
-        <v>0.890704065706484</v>
+        <v>0.999542865316892</v>
       </c>
       <c r="O19">
-        <v>0.896743313632215</v>
+        <v>0.9995473130909828</v>
       </c>
       <c r="P19">
-        <v>1.035270757427251</v>
+        <v>1.00049667621852</v>
       </c>
       <c r="Q19">
-        <v>1.035270757427251</v>
+        <v>1.00049667621852</v>
       </c>
       <c r="R19">
-        <v>1.107554103287634</v>
+        <v>1.000973581669334</v>
       </c>
       <c r="S19">
-        <v>1.107554103287634</v>
+        <v>1.000973581669334</v>
       </c>
       <c r="T19">
-        <v>0.990144046818903</v>
+        <v>1.00000853143776</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.004216966280962</v>
+        <v>1.005303480927447</v>
       </c>
       <c r="D20">
-        <v>0.9952012888710974</v>
+        <v>1.000861543284914</v>
       </c>
       <c r="E20">
-        <v>0.9952012888710974</v>
+        <v>1.000861543284914</v>
       </c>
       <c r="F20">
-        <v>0.9997145052085106</v>
+        <v>0.9980167828463806</v>
       </c>
       <c r="G20">
-        <v>1.000761828579399</v>
+        <v>0.9998733277008636</v>
       </c>
       <c r="H20">
-        <v>0.9933064491990006</v>
+        <v>0.9973468970691651</v>
       </c>
       <c r="I20">
-        <v>0.9996261787578732</v>
+        <v>0.9993820387219058</v>
       </c>
       <c r="J20">
-        <v>1.004216966280962</v>
+        <v>1.005303480927447</v>
       </c>
       <c r="K20">
-        <v>1.004216966280962</v>
+        <v>1.005303480927447</v>
       </c>
       <c r="L20">
-        <v>0.9997145052085106</v>
+        <v>0.9980167828463806</v>
       </c>
       <c r="M20">
-        <v>0.997457897039804</v>
+        <v>0.9994391630656473</v>
       </c>
       <c r="N20">
-        <v>0.997457897039804</v>
+        <v>0.9994391630656473</v>
       </c>
       <c r="O20">
-        <v>0.9981806576124937</v>
+        <v>0.9994201216177334</v>
       </c>
       <c r="P20">
-        <v>0.9997109201201898</v>
+        <v>1.001393935686247</v>
       </c>
       <c r="Q20">
-        <v>0.9997109201201898</v>
+        <v>1.001393935686247</v>
       </c>
       <c r="R20">
-        <v>1.000837431660383</v>
+        <v>1.002371321996547</v>
       </c>
       <c r="S20">
-        <v>1.000837431660383</v>
+        <v>1.002371321996547</v>
       </c>
       <c r="T20">
-        <v>0.9988045361494736</v>
+        <v>1.000130678425112</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9974414663356086</v>
+        <v>1.00607071036577</v>
       </c>
       <c r="D21">
-        <v>1.005127200166364</v>
+        <v>1.003881370254968</v>
       </c>
       <c r="E21">
-        <v>1.005127200166364</v>
+        <v>1.003881370254968</v>
       </c>
       <c r="F21">
-        <v>0.9994180783567008</v>
+        <v>0.9972243407458872</v>
       </c>
       <c r="G21">
-        <v>0.999159045820057</v>
+        <v>0.9993913695893347</v>
       </c>
       <c r="H21">
-        <v>1.008239703266212</v>
+        <v>0.9964126993379409</v>
       </c>
       <c r="I21">
-        <v>0.9997680709486343</v>
+        <v>0.9998596807509251</v>
       </c>
       <c r="J21">
-        <v>0.9974414663356086</v>
+        <v>1.00607071036577</v>
       </c>
       <c r="K21">
-        <v>0.9974414663356086</v>
+        <v>1.00607071036577</v>
       </c>
       <c r="L21">
-        <v>0.9994180783567008</v>
+        <v>0.9972243407458872</v>
       </c>
       <c r="M21">
-        <v>1.002272639261533</v>
+        <v>1.000552855500427</v>
       </c>
       <c r="N21">
-        <v>1.002272639261533</v>
+        <v>1.000552855500427</v>
       </c>
       <c r="O21">
-        <v>1.001437783157233</v>
+        <v>1.000321797250593</v>
       </c>
       <c r="P21">
-        <v>1.000662248286225</v>
+        <v>1.002392140455542</v>
       </c>
       <c r="Q21">
-        <v>1.000662248286225</v>
+        <v>1.002392140455542</v>
       </c>
       <c r="R21">
-        <v>0.9998570527985706</v>
+        <v>1.003311782933099</v>
       </c>
       <c r="S21">
-        <v>0.9998570527985706</v>
+        <v>1.003311782933099</v>
       </c>
       <c r="T21">
-        <v>1.001525594148929</v>
+        <v>1.000473361840804</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.007165445647783</v>
+        <v>1.014877577586833</v>
       </c>
       <c r="D22">
-        <v>0.9910886276511568</v>
+        <v>1.005827713176583</v>
       </c>
       <c r="E22">
-        <v>0.9910886276511568</v>
+        <v>1.005827713176583</v>
       </c>
       <c r="F22">
-        <v>1.002767888970694</v>
+        <v>0.9939199156388446</v>
       </c>
       <c r="G22">
-        <v>1.002147148492731</v>
+        <v>0.9990402291830692</v>
       </c>
       <c r="H22">
-        <v>0.9938949339722026</v>
+        <v>0.9919134572592941</v>
       </c>
       <c r="I22">
-        <v>0.995864225451311</v>
+        <v>0.9989549987710163</v>
       </c>
       <c r="J22">
-        <v>1.007165445647783</v>
+        <v>1.014877577586833</v>
       </c>
       <c r="K22">
-        <v>1.007165445647783</v>
+        <v>1.014877577586833</v>
       </c>
       <c r="L22">
-        <v>1.002767888970694</v>
+        <v>0.9939199156388446</v>
       </c>
       <c r="M22">
-        <v>0.9969282583109255</v>
+        <v>0.9998738144077139</v>
       </c>
       <c r="N22">
-        <v>0.9969282583109255</v>
+        <v>0.9998738144077139</v>
       </c>
       <c r="O22">
-        <v>0.9965735806910541</v>
+        <v>0.9995675425288147</v>
       </c>
       <c r="P22">
-        <v>1.000340654089878</v>
+        <v>1.004875068800754</v>
       </c>
       <c r="Q22">
-        <v>1.000340654089878</v>
+        <v>1.004875068800754</v>
       </c>
       <c r="R22">
-        <v>1.002046851979354</v>
+        <v>1.007375695997274</v>
       </c>
       <c r="S22">
-        <v>1.002046851979354</v>
+        <v>1.007375695997274</v>
       </c>
       <c r="T22">
-        <v>0.9988213783643132</v>
+        <v>1.000755648602607</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.021296944539634</v>
+      </c>
+      <c r="D23">
+        <v>1.017403749352137</v>
+      </c>
+      <c r="E23">
+        <v>1.017403749352137</v>
+      </c>
+      <c r="F23">
+        <v>0.9896610023539382</v>
+      </c>
+      <c r="G23">
+        <v>0.9976368393668171</v>
+      </c>
+      <c r="H23">
+        <v>0.9868163179283931</v>
+      </c>
+      <c r="I23">
+        <v>0.9997124537971589</v>
+      </c>
+      <c r="J23">
+        <v>1.021296944539634</v>
+      </c>
+      <c r="K23">
+        <v>1.021296944539634</v>
+      </c>
+      <c r="L23">
+        <v>0.9896610023539382</v>
+      </c>
+      <c r="M23">
+        <v>1.003532375853038</v>
+      </c>
+      <c r="N23">
+        <v>1.003532375853038</v>
+      </c>
+      <c r="O23">
+        <v>1.002259068501078</v>
+      </c>
+      <c r="P23">
+        <v>1.00945389874857</v>
+      </c>
+      <c r="Q23">
+        <v>1.00945389874857</v>
+      </c>
+      <c r="R23">
+        <v>1.012414660196336</v>
+      </c>
+      <c r="S23">
+        <v>1.012414660196336</v>
+      </c>
+      <c r="T23">
+        <v>1.002087884556346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.7997830995241429</v>
+      </c>
+      <c r="D24">
+        <v>0.7496650844597287</v>
+      </c>
+      <c r="E24">
+        <v>0.7496650844597287</v>
+      </c>
+      <c r="F24">
+        <v>1.137698033442856</v>
+      </c>
+      <c r="G24">
+        <v>1.044120691818265</v>
+      </c>
+      <c r="H24">
+        <v>0.9597020113045045</v>
+      </c>
+      <c r="I24">
+        <v>1.008178661707157</v>
+      </c>
+      <c r="J24">
+        <v>0.7997830995241429</v>
+      </c>
+      <c r="K24">
+        <v>0.7997830995241429</v>
+      </c>
+      <c r="L24">
+        <v>1.137698033442856</v>
+      </c>
+      <c r="M24">
+        <v>0.9436815589512921</v>
+      </c>
+      <c r="N24">
+        <v>0.9436815589512921</v>
+      </c>
+      <c r="O24">
+        <v>0.9651805932032471</v>
+      </c>
+      <c r="P24">
+        <v>0.8957154058089091</v>
+      </c>
+      <c r="Q24">
+        <v>0.8957154058089092</v>
+      </c>
+      <c r="R24">
+        <v>0.8717323292377176</v>
+      </c>
+      <c r="S24">
+        <v>0.8717323292377176</v>
+      </c>
+      <c r="T24">
+        <v>0.9498579303761089</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="D25">
+        <v>1.268981835564235</v>
+      </c>
+      <c r="E25">
+        <v>1.268981835564235</v>
+      </c>
+      <c r="F25">
+        <v>0.830276611624532</v>
+      </c>
+      <c r="G25">
+        <v>0.9406486785693515</v>
+      </c>
+      <c r="H25">
+        <v>1.142429010762399</v>
+      </c>
+      <c r="I25">
+        <v>0.9921217950800018</v>
+      </c>
+      <c r="J25">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="K25">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="L25">
+        <v>0.830276611624532</v>
+      </c>
+      <c r="M25">
+        <v>1.049629223594384</v>
+      </c>
+      <c r="N25">
+        <v>1.049629223594384</v>
+      </c>
+      <c r="O25">
+        <v>1.030460080756256</v>
+      </c>
+      <c r="P25">
+        <v>1.103898952995915</v>
+      </c>
+      <c r="Q25">
+        <v>1.103898952995915</v>
+      </c>
+      <c r="R25">
+        <v>1.131033817696681</v>
+      </c>
+      <c r="S25">
+        <v>1.131033817696681</v>
+      </c>
+      <c r="T25">
+        <v>1.064482723899916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.2404702404141349</v>
+      </c>
+      <c r="D26">
+        <v>3.635942637510909</v>
+      </c>
+      <c r="E26">
+        <v>3.635942637510909</v>
+      </c>
+      <c r="F26">
+        <v>0.4758779848770468</v>
+      </c>
+      <c r="G26">
+        <v>0.4076798692637056</v>
+      </c>
+      <c r="H26">
+        <v>0.04375825964634195</v>
+      </c>
+      <c r="I26">
+        <v>2.166991480852296</v>
+      </c>
+      <c r="J26">
+        <v>0.2404702404141349</v>
+      </c>
+      <c r="K26">
+        <v>0.2404702404141349</v>
+      </c>
+      <c r="L26">
+        <v>0.4758779848770468</v>
+      </c>
+      <c r="M26">
+        <v>2.055910311193978</v>
+      </c>
+      <c r="N26">
+        <v>2.055910311193978</v>
+      </c>
+      <c r="O26">
+        <v>2.09293736774675</v>
+      </c>
+      <c r="P26">
+        <v>1.45076362093403</v>
+      </c>
+      <c r="Q26">
+        <v>1.45076362093403</v>
+      </c>
+      <c r="R26">
+        <v>1.148190275804056</v>
+      </c>
+      <c r="S26">
+        <v>1.148190275804056</v>
+      </c>
+      <c r="T26">
+        <v>1.161786745427406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.8386491562959589</v>
+      </c>
+      <c r="D27">
+        <v>1.139827550582419</v>
+      </c>
+      <c r="E27">
+        <v>1.139827550582419</v>
+      </c>
+      <c r="F27">
+        <v>0.9237306816719273</v>
+      </c>
+      <c r="G27">
+        <v>0.8973540345668158</v>
+      </c>
+      <c r="H27">
+        <v>0.3732002823117419</v>
+      </c>
+      <c r="I27">
+        <v>1.351062220515084</v>
+      </c>
+      <c r="J27">
+        <v>0.8386491562959589</v>
+      </c>
+      <c r="K27">
+        <v>0.8386491562959589</v>
+      </c>
+      <c r="L27">
+        <v>0.9237306816719273</v>
+      </c>
+      <c r="M27">
+        <v>1.031779116127173</v>
+      </c>
+      <c r="N27">
+        <v>1.031779116127173</v>
+      </c>
+      <c r="O27">
+        <v>1.13820681758981</v>
+      </c>
+      <c r="P27">
+        <v>0.967402462850102</v>
+      </c>
+      <c r="Q27">
+        <v>0.9674024628501018</v>
+      </c>
+      <c r="R27">
+        <v>0.9352141362115661</v>
+      </c>
+      <c r="S27">
+        <v>0.9352141362115661</v>
+      </c>
+      <c r="T27">
+        <v>0.9206373209906579</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8803570771312796</v>
+      </c>
+      <c r="D28">
+        <v>1.13266606723797</v>
+      </c>
+      <c r="E28">
+        <v>1.13266606723797</v>
+      </c>
+      <c r="F28">
+        <v>1.095242531899154</v>
+      </c>
+      <c r="G28">
+        <v>1.008616032077354</v>
+      </c>
+      <c r="H28">
+        <v>1.607245341921403</v>
+      </c>
+      <c r="I28">
+        <v>0.8386554109977281</v>
+      </c>
+      <c r="J28">
+        <v>0.8803570771312796</v>
+      </c>
+      <c r="K28">
+        <v>0.8803570771312796</v>
+      </c>
+      <c r="L28">
+        <v>1.095242531899154</v>
+      </c>
+      <c r="M28">
+        <v>1.113954299568562</v>
+      </c>
+      <c r="N28">
+        <v>1.113954299568562</v>
+      </c>
+      <c r="O28">
+        <v>1.022188003378284</v>
+      </c>
+      <c r="P28">
+        <v>1.036088558756135</v>
+      </c>
+      <c r="Q28">
+        <v>1.036088558756135</v>
+      </c>
+      <c r="R28">
+        <v>0.997155688349921</v>
+      </c>
+      <c r="S28">
+        <v>0.997155688349921</v>
+      </c>
+      <c r="T28">
+        <v>1.093797076877481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9968148897055098</v>
+      </c>
+      <c r="D29">
+        <v>1.041178865559716</v>
+      </c>
+      <c r="E29">
+        <v>1.041178865559716</v>
+      </c>
+      <c r="F29">
+        <v>1.048764406871592</v>
+      </c>
+      <c r="G29">
+        <v>1.014662214100375</v>
+      </c>
+      <c r="H29">
+        <v>1.383423318000787</v>
+      </c>
+      <c r="I29">
+        <v>0.8671430102704046</v>
+      </c>
+      <c r="J29">
+        <v>0.9968148897055098</v>
+      </c>
+      <c r="K29">
+        <v>0.9968148897055098</v>
+      </c>
+      <c r="L29">
+        <v>1.048764406871592</v>
+      </c>
+      <c r="M29">
+        <v>1.044971636215654</v>
+      </c>
+      <c r="N29">
+        <v>1.044971636215654</v>
+      </c>
+      <c r="O29">
+        <v>0.9856954275672375</v>
+      </c>
+      <c r="P29">
+        <v>1.028919387378939</v>
+      </c>
+      <c r="Q29">
+        <v>1.028919387378939</v>
+      </c>
+      <c r="R29">
+        <v>1.020893262960582</v>
+      </c>
+      <c r="S29">
+        <v>1.020893262960582</v>
+      </c>
+      <c r="T29">
+        <v>1.058664450751397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.225263004960876</v>
+      </c>
+      <c r="D30">
+        <v>0.8634322821107726</v>
+      </c>
+      <c r="E30">
+        <v>0.8634322821107726</v>
+      </c>
+      <c r="F30">
+        <v>0.9563796899489933</v>
+      </c>
+      <c r="G30">
+        <v>1.026038224033173</v>
+      </c>
+      <c r="H30">
+        <v>0.937745587591214</v>
+      </c>
+      <c r="I30">
+        <v>0.9254931262482515</v>
+      </c>
+      <c r="J30">
+        <v>1.225263004960876</v>
+      </c>
+      <c r="K30">
+        <v>1.225263004960876</v>
+      </c>
+      <c r="L30">
+        <v>0.9563796899489933</v>
+      </c>
+      <c r="M30">
+        <v>0.9099059860298829</v>
+      </c>
+      <c r="N30">
+        <v>0.9099059860298829</v>
+      </c>
+      <c r="O30">
+        <v>0.9151016994360058</v>
+      </c>
+      <c r="P30">
+        <v>1.015024992340214</v>
+      </c>
+      <c r="Q30">
+        <v>1.015024992340214</v>
+      </c>
+      <c r="R30">
+        <v>1.06758449549538</v>
+      </c>
+      <c r="S30">
+        <v>1.06758449549538</v>
+      </c>
+      <c r="T30">
+        <v>0.9890586524822136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.324404140868784</v>
+      </c>
+      <c r="D31">
+        <v>0.8591208969847812</v>
+      </c>
+      <c r="E31">
+        <v>0.8591208969847812</v>
+      </c>
+      <c r="F31">
+        <v>0.9222872344281866</v>
+      </c>
+      <c r="G31">
+        <v>1.026547660083895</v>
+      </c>
+      <c r="H31">
+        <v>0.8996825390640941</v>
+      </c>
+      <c r="I31">
+        <v>0.908821809483677</v>
+      </c>
+      <c r="J31">
+        <v>1.324404140868784</v>
+      </c>
+      <c r="K31">
+        <v>1.324404140868784</v>
+      </c>
+      <c r="L31">
+        <v>0.9222872344281866</v>
+      </c>
+      <c r="M31">
+        <v>0.890704065706484</v>
+      </c>
+      <c r="N31">
+        <v>0.890704065706484</v>
+      </c>
+      <c r="O31">
+        <v>0.896743313632215</v>
+      </c>
+      <c r="P31">
+        <v>1.035270757427251</v>
+      </c>
+      <c r="Q31">
+        <v>1.035270757427251</v>
+      </c>
+      <c r="R31">
+        <v>1.107554103287634</v>
+      </c>
+      <c r="S31">
+        <v>1.107554103287634</v>
+      </c>
+      <c r="T31">
+        <v>0.990144046818903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.7548764528219182</v>
+      </c>
+      <c r="D32">
+        <v>1.302335194706849</v>
+      </c>
+      <c r="E32">
+        <v>1.302335194706849</v>
+      </c>
+      <c r="F32">
+        <v>1.127535245342466</v>
+      </c>
+      <c r="G32">
+        <v>0.9901251993150681</v>
+      </c>
+      <c r="H32">
+        <v>1.805248583839726</v>
+      </c>
+      <c r="I32">
+        <v>0.8321511001095889</v>
+      </c>
+      <c r="J32">
+        <v>0.7548764528219182</v>
+      </c>
+      <c r="K32">
+        <v>0.7548764528219182</v>
+      </c>
+      <c r="L32">
+        <v>1.127535245342466</v>
+      </c>
+      <c r="M32">
+        <v>1.214935220024657</v>
+      </c>
+      <c r="N32">
+        <v>1.214935220024657</v>
+      </c>
+      <c r="O32">
+        <v>1.087340513386301</v>
+      </c>
+      <c r="P32">
+        <v>1.061582297623744</v>
+      </c>
+      <c r="Q32">
+        <v>1.061582297623745</v>
+      </c>
+      <c r="R32">
+        <v>0.9849058364232879</v>
+      </c>
+      <c r="S32">
+        <v>0.9849058364232879</v>
+      </c>
+      <c r="T32">
+        <v>1.135378629355936</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.341504682947369</v>
+      </c>
+      <c r="D33">
+        <v>2.313446413578948</v>
+      </c>
+      <c r="E33">
+        <v>2.313446413578948</v>
+      </c>
+      <c r="F33">
+        <v>0.4148450784210526</v>
+      </c>
+      <c r="G33">
+        <v>0.6632488847368421</v>
+      </c>
+      <c r="H33">
+        <v>0.08656499415263157</v>
+      </c>
+      <c r="I33">
+        <v>1.587143551578947</v>
+      </c>
+      <c r="J33">
+        <v>1.341504682947369</v>
+      </c>
+      <c r="K33">
+        <v>1.341504682947369</v>
+      </c>
+      <c r="L33">
+        <v>0.4148450784210526</v>
+      </c>
+      <c r="M33">
+        <v>1.364145746</v>
+      </c>
+      <c r="N33">
+        <v>1.364145746</v>
+      </c>
+      <c r="O33">
+        <v>1.438478347859649</v>
+      </c>
+      <c r="P33">
+        <v>1.356598724982456</v>
+      </c>
+      <c r="Q33">
+        <v>1.356598724982456</v>
+      </c>
+      <c r="R33">
+        <v>1.352825214473684</v>
+      </c>
+      <c r="S33">
+        <v>1.352825214473684</v>
+      </c>
+      <c r="T33">
+        <v>1.067792267569298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.8159869238421055</v>
+      </c>
+      <c r="D34">
+        <v>1.342166235863158</v>
+      </c>
+      <c r="E34">
+        <v>1.342166235863158</v>
+      </c>
+      <c r="F34">
+        <v>1.095994567894737</v>
+      </c>
+      <c r="G34">
+        <v>0.9822274357894737</v>
+      </c>
+      <c r="H34">
+        <v>1.739638943468421</v>
+      </c>
+      <c r="I34">
+        <v>0.8413760448421054</v>
+      </c>
+      <c r="J34">
+        <v>0.8159869238421055</v>
+      </c>
+      <c r="K34">
+        <v>0.8159869238421055</v>
+      </c>
+      <c r="L34">
+        <v>1.095994567894737</v>
+      </c>
+      <c r="M34">
+        <v>1.219080401878947</v>
+      </c>
+      <c r="N34">
+        <v>1.219080401878947</v>
+      </c>
+      <c r="O34">
+        <v>1.093178949533333</v>
+      </c>
+      <c r="P34">
+        <v>1.0847159092</v>
+      </c>
+      <c r="Q34">
+        <v>1.0847159092</v>
+      </c>
+      <c r="R34">
+        <v>1.017533662860526</v>
+      </c>
+      <c r="S34">
+        <v>1.017533662860526</v>
+      </c>
+      <c r="T34">
+        <v>1.13623169195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>2.334482157112217</v>
+      </c>
+      <c r="D35">
+        <v>0.4385092129803458</v>
+      </c>
+      <c r="E35">
+        <v>0.4385092129803458</v>
+      </c>
+      <c r="F35">
+        <v>0.6895102014881167</v>
+      </c>
+      <c r="G35">
+        <v>1.080684799888507</v>
+      </c>
+      <c r="H35">
+        <v>0.5747055985020091</v>
+      </c>
+      <c r="I35">
+        <v>0.6580246537993393</v>
+      </c>
+      <c r="J35">
+        <v>2.334482157112217</v>
+      </c>
+      <c r="K35">
+        <v>2.334482157112217</v>
+      </c>
+      <c r="L35">
+        <v>0.6895102014881167</v>
+      </c>
+      <c r="M35">
+        <v>0.5640097072342313</v>
+      </c>
+      <c r="N35">
+        <v>0.5640097072342313</v>
+      </c>
+      <c r="O35">
+        <v>0.5953480227559339</v>
+      </c>
+      <c r="P35">
+        <v>1.154167190526893</v>
+      </c>
+      <c r="Q35">
+        <v>1.154167190526893</v>
+      </c>
+      <c r="R35">
+        <v>1.449245932173224</v>
+      </c>
+      <c r="S35">
+        <v>1.449245932173224</v>
+      </c>
+      <c r="T35">
+        <v>0.9626527706284224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.004216966280962</v>
+      </c>
+      <c r="D36">
+        <v>0.9952012888710974</v>
+      </c>
+      <c r="E36">
+        <v>0.9952012888710974</v>
+      </c>
+      <c r="F36">
+        <v>0.9997145052085106</v>
+      </c>
+      <c r="G36">
+        <v>1.000761828579399</v>
+      </c>
+      <c r="H36">
+        <v>0.9933064491990006</v>
+      </c>
+      <c r="I36">
+        <v>0.9996261787578732</v>
+      </c>
+      <c r="J36">
+        <v>1.004216966280962</v>
+      </c>
+      <c r="K36">
+        <v>1.004216966280962</v>
+      </c>
+      <c r="L36">
+        <v>0.9997145052085106</v>
+      </c>
+      <c r="M36">
+        <v>0.997457897039804</v>
+      </c>
+      <c r="N36">
+        <v>0.997457897039804</v>
+      </c>
+      <c r="O36">
+        <v>0.9981806576124937</v>
+      </c>
+      <c r="P36">
+        <v>0.9997109201201898</v>
+      </c>
+      <c r="Q36">
+        <v>0.9997109201201898</v>
+      </c>
+      <c r="R36">
+        <v>1.000837431660383</v>
+      </c>
+      <c r="S36">
+        <v>1.000837431660383</v>
+      </c>
+      <c r="T36">
+        <v>0.9988045361494736</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9974414663356086</v>
+      </c>
+      <c r="D37">
+        <v>1.005127200166364</v>
+      </c>
+      <c r="E37">
+        <v>1.005127200166364</v>
+      </c>
+      <c r="F37">
+        <v>0.9994180783567008</v>
+      </c>
+      <c r="G37">
+        <v>0.999159045820057</v>
+      </c>
+      <c r="H37">
+        <v>1.008239703266212</v>
+      </c>
+      <c r="I37">
+        <v>0.9997680709486343</v>
+      </c>
+      <c r="J37">
+        <v>0.9974414663356086</v>
+      </c>
+      <c r="K37">
+        <v>0.9974414663356086</v>
+      </c>
+      <c r="L37">
+        <v>0.9994180783567008</v>
+      </c>
+      <c r="M37">
+        <v>1.002272639261533</v>
+      </c>
+      <c r="N37">
+        <v>1.002272639261533</v>
+      </c>
+      <c r="O37">
+        <v>1.001437783157233</v>
+      </c>
+      <c r="P37">
+        <v>1.000662248286225</v>
+      </c>
+      <c r="Q37">
+        <v>1.000662248286225</v>
+      </c>
+      <c r="R37">
+        <v>0.9998570527985706</v>
+      </c>
+      <c r="S37">
+        <v>0.9998570527985706</v>
+      </c>
+      <c r="T37">
+        <v>1.001525594148929</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.007165445647783</v>
+      </c>
+      <c r="D38">
+        <v>0.9910886276511568</v>
+      </c>
+      <c r="E38">
+        <v>0.9910886276511568</v>
+      </c>
+      <c r="F38">
+        <v>1.002767888970694</v>
+      </c>
+      <c r="G38">
+        <v>1.002147148492731</v>
+      </c>
+      <c r="H38">
+        <v>0.9938949339722026</v>
+      </c>
+      <c r="I38">
+        <v>0.995864225451311</v>
+      </c>
+      <c r="J38">
+        <v>1.007165445647783</v>
+      </c>
+      <c r="K38">
+        <v>1.007165445647783</v>
+      </c>
+      <c r="L38">
+        <v>1.002767888970694</v>
+      </c>
+      <c r="M38">
+        <v>0.9969282583109255</v>
+      </c>
+      <c r="N38">
+        <v>0.9969282583109255</v>
+      </c>
+      <c r="O38">
+        <v>0.9965735806910541</v>
+      </c>
+      <c r="P38">
+        <v>1.000340654089878</v>
+      </c>
+      <c r="Q38">
+        <v>1.000340654089878</v>
+      </c>
+      <c r="R38">
+        <v>1.002046851979354</v>
+      </c>
+      <c r="S38">
+        <v>1.002046851979354</v>
+      </c>
+      <c r="T38">
+        <v>0.9988213783643132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.021554414375299</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.959140592634957</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.959140592634957</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.008737280630876</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.008482651634279</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9642719728820629</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9907299392810377</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.021554414375299</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.021554414375299</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.008737280630876</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9839389366329163</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9839389366329163</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9862026041822901</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9964774292137104</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9964774292137104</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.002746675504107</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.002746675504107</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9921528085730852</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.205658809073799</v>
+      </c>
+      <c r="D40">
+        <v>0.8986369109390666</v>
+      </c>
+      <c r="E40">
+        <v>0.8986369109390666</v>
+      </c>
+      <c r="F40">
+        <v>0.9486494071342561</v>
+      </c>
+      <c r="G40">
+        <v>1.017447450705315</v>
+      </c>
+      <c r="H40">
+        <v>0.9182952508329895</v>
+      </c>
+      <c r="I40">
+        <v>0.9476070816614462</v>
+      </c>
+      <c r="J40">
+        <v>1.205658809073799</v>
+      </c>
+      <c r="K40">
+        <v>1.205658809073799</v>
+      </c>
+      <c r="L40">
+        <v>0.9486494071342561</v>
+      </c>
+      <c r="M40">
+        <v>0.9236431590366614</v>
+      </c>
+      <c r="N40">
+        <v>0.9236431590366614</v>
+      </c>
+      <c r="O40">
+        <v>0.931631133244923</v>
+      </c>
+      <c r="P40">
+        <v>1.017648375715707</v>
+      </c>
+      <c r="Q40">
+        <v>1.017648375715707</v>
+      </c>
+      <c r="R40">
+        <v>1.06465098405523</v>
+      </c>
+      <c r="S40">
+        <v>1.06465098405523</v>
+      </c>
+      <c r="T40">
+        <v>0.9893824850578121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.094447464465899</v>
+      </c>
+      <c r="D41">
+        <v>0.624313653688683</v>
+      </c>
+      <c r="E41">
+        <v>0.624313653688683</v>
+      </c>
+      <c r="F41">
+        <v>1.091731570324572</v>
+      </c>
+      <c r="G41">
+        <v>1.0929479202332</v>
+      </c>
+      <c r="H41">
+        <v>1.230293526248312</v>
+      </c>
+      <c r="I41">
+        <v>0.7997924648535661</v>
+      </c>
+      <c r="J41">
+        <v>1.094447464465899</v>
+      </c>
+      <c r="K41">
+        <v>1.094447464465899</v>
+      </c>
+      <c r="L41">
+        <v>1.091731570324572</v>
+      </c>
+      <c r="M41">
+        <v>0.8580226120066272</v>
+      </c>
+      <c r="N41">
+        <v>0.8580226120066272</v>
+      </c>
+      <c r="O41">
+        <v>0.8386125629556069</v>
+      </c>
+      <c r="P41">
+        <v>0.9368308961597179</v>
+      </c>
+      <c r="Q41">
+        <v>0.9368308961597179</v>
+      </c>
+      <c r="R41">
+        <v>0.9762350382362632</v>
+      </c>
+      <c r="S41">
+        <v>0.9762350382362632</v>
+      </c>
+      <c r="T41">
+        <v>0.9889210999690387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.191872431518504</v>
+      </c>
+      <c r="D42">
+        <v>0.6130461667782735</v>
+      </c>
+      <c r="E42">
+        <v>0.6130461667782735</v>
+      </c>
+      <c r="F42">
+        <v>1.080038410305963</v>
+      </c>
+      <c r="G42">
+        <v>1.112129509003673</v>
+      </c>
+      <c r="H42">
+        <v>1.377003309757392</v>
+      </c>
+      <c r="I42">
+        <v>0.709661343026633</v>
+      </c>
+      <c r="J42">
+        <v>1.191872431518504</v>
+      </c>
+      <c r="K42">
+        <v>1.191872431518504</v>
+      </c>
+      <c r="L42">
+        <v>1.080038410305963</v>
+      </c>
+      <c r="M42">
+        <v>0.8465422885421185</v>
+      </c>
+      <c r="N42">
+        <v>0.8465422885421185</v>
+      </c>
+      <c r="O42">
+        <v>0.8009153067036233</v>
+      </c>
+      <c r="P42">
+        <v>0.9616523362009138</v>
+      </c>
+      <c r="Q42">
+        <v>0.9616523362009137</v>
+      </c>
+      <c r="R42">
+        <v>1.019207360030311</v>
+      </c>
+      <c r="S42">
+        <v>1.019207360030311</v>
+      </c>
+      <c r="T42">
+        <v>1.013958528398407</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9926379822485107</v>
+        <v>1.005303480927447</v>
       </c>
       <c r="D3">
-        <v>1.009549869402041</v>
+        <v>1.000861543284914</v>
       </c>
       <c r="E3">
-        <v>1.005145105906757</v>
+        <v>1.000861543284914</v>
       </c>
       <c r="F3">
-        <v>0.9926379822485107</v>
+        <v>0.9980167828463806</v>
       </c>
       <c r="G3">
-        <v>1.034788392119574</v>
+        <v>0.9998733277008636</v>
       </c>
       <c r="H3">
-        <v>0.9915374180482408</v>
+        <v>0.9973468970691651</v>
       </c>
       <c r="I3">
-        <v>0.9999096450096817</v>
+        <v>0.9993820387219058</v>
       </c>
       <c r="J3">
-        <v>1.009549869402041</v>
+        <v>1.005303480927447</v>
       </c>
       <c r="K3">
-        <v>0.9926379822485107</v>
+        <v>1.005303480927447</v>
       </c>
       <c r="L3">
-        <v>1.005145105906757</v>
+        <v>0.9980167828463806</v>
       </c>
       <c r="M3">
-        <v>1.007347487654399</v>
+        <v>0.9994391630656473</v>
       </c>
       <c r="N3">
-        <v>1.007347487654399</v>
+        <v>0.9994391630656473</v>
       </c>
       <c r="O3">
-        <v>1.002077464452346</v>
+        <v>0.9994201216177334</v>
       </c>
       <c r="P3">
-        <v>1.002444319185769</v>
+        <v>1.001393935686247</v>
       </c>
       <c r="Q3">
-        <v>1.002444319185769</v>
+        <v>1.001393935686247</v>
       </c>
       <c r="R3">
-        <v>0.9999927349514547</v>
+        <v>1.002371321996547</v>
       </c>
       <c r="S3">
-        <v>0.9999927349514547</v>
+        <v>1.002371321996547</v>
       </c>
       <c r="T3">
-        <v>1.005594735455801</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000130678425112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9845095129184515</v>
+        <v>1.205658809073799</v>
       </c>
       <c r="D4">
-        <v>1.018061987890342</v>
+        <v>0.8986369109390666</v>
       </c>
       <c r="E4">
-        <v>1.010594042399899</v>
+        <v>0.8986369109390666</v>
       </c>
       <c r="F4">
-        <v>0.9845095129184515</v>
+        <v>0.9486494071342561</v>
       </c>
       <c r="G4">
-        <v>1.066965948100107</v>
+        <v>1.017447450705315</v>
       </c>
       <c r="H4">
-        <v>0.9837597894164486</v>
+        <v>0.9182952508329895</v>
       </c>
       <c r="I4">
-        <v>1.000074649135165</v>
+        <v>0.9476070816614462</v>
       </c>
       <c r="J4">
-        <v>1.018061987890342</v>
+        <v>1.205658809073799</v>
       </c>
       <c r="K4">
-        <v>0.9845095129184515</v>
+        <v>1.205658809073799</v>
       </c>
       <c r="L4">
-        <v>1.010594042399899</v>
+        <v>0.9486494071342561</v>
       </c>
       <c r="M4">
-        <v>1.01432801514512</v>
+        <v>0.9236431590366614</v>
       </c>
       <c r="N4">
-        <v>1.01432801514512</v>
+        <v>0.9236431590366614</v>
       </c>
       <c r="O4">
-        <v>1.004138606568896</v>
+        <v>0.931631133244923</v>
       </c>
       <c r="P4">
-        <v>1.004388514402897</v>
+        <v>1.017648375715707</v>
       </c>
       <c r="Q4">
-        <v>1.004388514402897</v>
+        <v>1.017648375715707</v>
       </c>
       <c r="R4">
-        <v>0.9994187640317859</v>
+        <v>1.06465098405523</v>
       </c>
       <c r="S4">
-        <v>0.9994187640317859</v>
+        <v>1.06465098405523</v>
       </c>
       <c r="T4">
-        <v>1.010660988310069</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9893824850578121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9767116085414443</v>
+        <v>1.267623904252883</v>
       </c>
       <c r="D5">
-        <v>1.033681632001416</v>
+        <v>0.8477808095912102</v>
       </c>
       <c r="E5">
-        <v>1.018176753936587</v>
+        <v>0.8477808095912102</v>
       </c>
       <c r="F5">
-        <v>0.9767116085414443</v>
+        <v>0.9498403545749273</v>
       </c>
       <c r="G5">
-        <v>1.124612576346047</v>
+        <v>1.028978949899135</v>
       </c>
       <c r="H5">
-        <v>0.9680647795900041</v>
+        <v>0.9505008452391173</v>
       </c>
       <c r="I5">
-        <v>0.9999515401272275</v>
+        <v>0.9063496410389065</v>
       </c>
       <c r="J5">
-        <v>1.033681632001416</v>
+        <v>1.267623904252883</v>
       </c>
       <c r="K5">
-        <v>0.9767116085414443</v>
+        <v>1.267623904252883</v>
       </c>
       <c r="L5">
-        <v>1.018176753936587</v>
+        <v>0.9498403545749273</v>
       </c>
       <c r="M5">
-        <v>1.025929192969002</v>
+        <v>0.8988105820830687</v>
       </c>
       <c r="N5">
-        <v>1.025929192969002</v>
+        <v>0.8988105820830687</v>
       </c>
       <c r="O5">
-        <v>1.006641055176003</v>
+        <v>0.9013236017350147</v>
       </c>
       <c r="P5">
-        <v>1.009523331493149</v>
+        <v>1.021748356139674</v>
       </c>
       <c r="Q5">
-        <v>1.009523331493149</v>
+        <v>1.021748356139673</v>
       </c>
       <c r="R5">
-        <v>1.001320400755223</v>
+        <v>1.083217243167976</v>
       </c>
       <c r="S5">
-        <v>1.001320400755223</v>
+        <v>1.083217243167976</v>
       </c>
       <c r="T5">
-        <v>1.020199815090454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9918457507660299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9750638460803326</v>
+        <v>2.334482157112217</v>
       </c>
       <c r="D6">
-        <v>1.047816968171457</v>
+        <v>0.4385092129803458</v>
       </c>
       <c r="E6">
-        <v>1.023513649639335</v>
+        <v>0.4385092129803458</v>
       </c>
       <c r="F6">
-        <v>0.9750638460803326</v>
+        <v>0.6895102014881167</v>
       </c>
       <c r="G6">
-        <v>1.191060643435945</v>
+        <v>1.080684799888507</v>
       </c>
       <c r="H6">
-        <v>0.9490925489275779</v>
+        <v>0.5747055985020091</v>
       </c>
       <c r="I6">
-        <v>0.9967560094893512</v>
+        <v>0.6580246537993393</v>
       </c>
       <c r="J6">
-        <v>1.047816968171457</v>
+        <v>2.334482157112217</v>
       </c>
       <c r="K6">
-        <v>0.9750638460803326</v>
+        <v>2.334482157112217</v>
       </c>
       <c r="L6">
-        <v>1.023513649639335</v>
+        <v>0.6895102014881167</v>
       </c>
       <c r="M6">
-        <v>1.035665308905396</v>
+        <v>0.5640097072342313</v>
       </c>
       <c r="N6">
-        <v>1.035665308905396</v>
+        <v>0.5640097072342313</v>
       </c>
       <c r="O6">
-        <v>1.006807722246123</v>
+        <v>0.5953480227559339</v>
       </c>
       <c r="P6">
-        <v>1.015464821297041</v>
+        <v>1.154167190526893</v>
       </c>
       <c r="Q6">
-        <v>1.015464821297041</v>
+        <v>1.154167190526893</v>
       </c>
       <c r="R6">
-        <v>1.005364577492864</v>
+        <v>1.449245932173224</v>
       </c>
       <c r="S6">
-        <v>1.005364577492864</v>
+        <v>1.449245932173224</v>
       </c>
       <c r="T6">
-        <v>1.030550610957333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9626527706284224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.002404298021777</v>
+        <v>0.989305322038683</v>
       </c>
       <c r="D7">
-        <v>0.9998006516551128</v>
+        <v>1.010403626782295</v>
       </c>
       <c r="E7">
-        <v>0.9992850789786706</v>
+        <v>1.010403626782295</v>
       </c>
       <c r="F7">
-        <v>1.002404298021777</v>
+        <v>1.006274641959758</v>
       </c>
       <c r="G7">
-        <v>0.9989712151970772</v>
+        <v>1.000197007418612</v>
       </c>
       <c r="H7">
-        <v>0.9995562086391644</v>
+        <v>1.040420257879107</v>
       </c>
       <c r="I7">
-        <v>1.00003373613476</v>
+        <v>0.99064246943831</v>
       </c>
       <c r="J7">
-        <v>0.9998006516551128</v>
+        <v>0.989305322038683</v>
       </c>
       <c r="K7">
-        <v>1.002404298021777</v>
+        <v>0.989305322038683</v>
       </c>
       <c r="L7">
-        <v>0.9992850789786706</v>
+        <v>1.006274641959758</v>
       </c>
       <c r="M7">
-        <v>0.9995428653168916</v>
+        <v>1.008339134371026</v>
       </c>
       <c r="N7">
-        <v>0.9995428653168916</v>
+        <v>1.008339134371026</v>
       </c>
       <c r="O7">
-        <v>0.9995473130909825</v>
+        <v>1.002440246060121</v>
       </c>
       <c r="P7">
-        <v>1.00049667621852</v>
+        <v>1.001994530260245</v>
       </c>
       <c r="Q7">
-        <v>1.00049667621852</v>
+        <v>1.001994530260245</v>
       </c>
       <c r="R7">
-        <v>1.000973581669334</v>
+        <v>0.9988222282048547</v>
       </c>
       <c r="S7">
-        <v>1.000973581669334</v>
+        <v>0.9988222282048547</v>
       </c>
       <c r="T7">
-        <v>1.00000853143776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.006207220919461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.005303480927446</v>
+        <v>0.9974414663356086</v>
       </c>
       <c r="D8">
-        <v>1.000861543284915</v>
+        <v>1.005127200166364</v>
       </c>
       <c r="E8">
-        <v>0.9980167828463808</v>
+        <v>1.005127200166364</v>
       </c>
       <c r="F8">
-        <v>1.005303480927446</v>
+        <v>0.9994180783567008</v>
       </c>
       <c r="G8">
-        <v>0.9973468970691649</v>
+        <v>0.999159045820057</v>
       </c>
       <c r="H8">
-        <v>0.9993820387219056</v>
+        <v>1.008239703266212</v>
       </c>
       <c r="I8">
-        <v>0.9998733277008641</v>
+        <v>0.9997680709486343</v>
       </c>
       <c r="J8">
-        <v>1.000861543284915</v>
+        <v>0.9974414663356086</v>
       </c>
       <c r="K8">
-        <v>1.005303480927446</v>
+        <v>0.9974414663356086</v>
       </c>
       <c r="L8">
-        <v>0.9980167828463808</v>
+        <v>0.9994180783567008</v>
       </c>
       <c r="M8">
-        <v>0.999439163065648</v>
+        <v>1.002272639261533</v>
       </c>
       <c r="N8">
-        <v>0.999439163065648</v>
+        <v>1.002272639261533</v>
       </c>
       <c r="O8">
-        <v>0.9994201216177339</v>
+        <v>1.001437783157233</v>
       </c>
       <c r="P8">
-        <v>1.001393935686247</v>
+        <v>1.000662248286225</v>
       </c>
       <c r="Q8">
-        <v>1.001393935686247</v>
+        <v>1.000662248286225</v>
       </c>
       <c r="R8">
-        <v>1.002371321996547</v>
+        <v>0.9998570527985706</v>
       </c>
       <c r="S8">
-        <v>1.002371321996547</v>
+        <v>0.9998570527985706</v>
       </c>
       <c r="T8">
-        <v>1.000130678425113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.001525594148929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00607071036577</v>
+        <v>0.9845095129184515</v>
       </c>
       <c r="D9">
-        <v>1.003881370254968</v>
+        <v>1.018061987890342</v>
       </c>
       <c r="E9">
-        <v>0.9972243407458872</v>
+        <v>1.018061987890342</v>
       </c>
       <c r="F9">
-        <v>1.00607071036577</v>
+        <v>1.010594042399899</v>
       </c>
       <c r="G9">
-        <v>0.9964126993379409</v>
+        <v>1.000074649135165</v>
       </c>
       <c r="H9">
-        <v>0.9998596807509251</v>
+        <v>1.066965948100107</v>
       </c>
       <c r="I9">
-        <v>0.9993913695893347</v>
+        <v>0.9837597894164486</v>
       </c>
       <c r="J9">
-        <v>1.003881370254968</v>
+        <v>0.9845095129184515</v>
       </c>
       <c r="K9">
-        <v>1.00607071036577</v>
+        <v>0.9845095129184515</v>
       </c>
       <c r="L9">
-        <v>0.9972243407458872</v>
+        <v>1.010594042399899</v>
       </c>
       <c r="M9">
-        <v>1.000552855500427</v>
+        <v>1.01432801514512</v>
       </c>
       <c r="N9">
-        <v>1.000552855500427</v>
+        <v>1.01432801514512</v>
       </c>
       <c r="O9">
-        <v>1.000321797250593</v>
+        <v>1.004138606568896</v>
       </c>
       <c r="P9">
-        <v>1.002392140455542</v>
+        <v>1.004388514402897</v>
       </c>
       <c r="Q9">
-        <v>1.002392140455542</v>
+        <v>1.004388514402897</v>
       </c>
       <c r="R9">
-        <v>1.003311782933099</v>
+        <v>0.9994187640317859</v>
       </c>
       <c r="S9">
-        <v>1.003311782933099</v>
+        <v>0.9994187640317859</v>
       </c>
       <c r="T9">
-        <v>1.000473361840804</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.010660988310069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.014877577586833</v>
+        <v>2.381196502040565</v>
       </c>
       <c r="D10">
-        <v>1.005827713176583</v>
+        <v>0.4433765392047035</v>
       </c>
       <c r="E10">
-        <v>0.9939199156388446</v>
+        <v>0.4433765392047035</v>
       </c>
       <c r="F10">
-        <v>1.014877577586833</v>
+        <v>0.6719721326797238</v>
       </c>
       <c r="G10">
-        <v>0.9919134572592941</v>
+        <v>1.080026445294189</v>
       </c>
       <c r="H10">
-        <v>0.9989549987710163</v>
+        <v>0.5598695232096317</v>
       </c>
       <c r="I10">
-        <v>0.9990402291830692</v>
+        <v>0.6503991993635087</v>
       </c>
       <c r="J10">
-        <v>1.005827713176583</v>
+        <v>2.381196502040565</v>
       </c>
       <c r="K10">
-        <v>1.014877577586833</v>
+        <v>2.381196502040565</v>
       </c>
       <c r="L10">
-        <v>0.9939199156388446</v>
+        <v>0.6719721326797238</v>
       </c>
       <c r="M10">
-        <v>0.9998738144077139</v>
+        <v>0.5576743359422136</v>
       </c>
       <c r="N10">
-        <v>0.9998738144077139</v>
+        <v>0.5576743359422136</v>
       </c>
       <c r="O10">
-        <v>0.9995675425288147</v>
+        <v>0.5885826237493119</v>
       </c>
       <c r="P10">
-        <v>1.004875068800754</v>
+        <v>1.165515057974998</v>
       </c>
       <c r="Q10">
-        <v>1.004875068800754</v>
+        <v>1.165515057974998</v>
       </c>
       <c r="R10">
-        <v>1.007375695997274</v>
+        <v>1.469435418991389</v>
       </c>
       <c r="S10">
-        <v>1.007375695997274</v>
+        <v>1.469435418991389</v>
       </c>
       <c r="T10">
-        <v>1.000755648602607</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9644733902987204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.021296944539634</v>
+        <v>1.29652235431551</v>
       </c>
       <c r="D11">
-        <v>1.017403749352137</v>
+        <v>0.4684520838985147</v>
       </c>
       <c r="E11">
-        <v>0.9896610023539382</v>
+        <v>0.4684520838985147</v>
       </c>
       <c r="F11">
-        <v>1.021296944539634</v>
+        <v>1.07022058055835</v>
       </c>
       <c r="G11">
-        <v>0.9868163179283931</v>
+        <v>1.130871255650708</v>
       </c>
       <c r="H11">
-        <v>0.9997124537971588</v>
+        <v>1.193828020659943</v>
       </c>
       <c r="I11">
-        <v>0.9976368393668171</v>
+        <v>0.7071995010763263</v>
       </c>
       <c r="J11">
-        <v>1.017403749352137</v>
+        <v>1.29652235431551</v>
       </c>
       <c r="K11">
-        <v>1.021296944539634</v>
+        <v>1.29652235431551</v>
       </c>
       <c r="L11">
-        <v>0.9896610023539382</v>
+        <v>1.07022058055835</v>
       </c>
       <c r="M11">
-        <v>1.003532375853038</v>
+        <v>0.7693363322284325</v>
       </c>
       <c r="N11">
-        <v>1.003532375853038</v>
+        <v>0.7693363322284325</v>
       </c>
       <c r="O11">
-        <v>1.002259068501078</v>
+        <v>0.7486240551777303</v>
       </c>
       <c r="P11">
-        <v>1.00945389874857</v>
+        <v>0.9450650062574583</v>
       </c>
       <c r="Q11">
-        <v>1.00945389874857</v>
+        <v>0.9450650062574583</v>
       </c>
       <c r="R11">
-        <v>1.012414660196336</v>
+        <v>1.032929343271971</v>
       </c>
       <c r="S11">
-        <v>1.012414660196336</v>
+        <v>1.032929343271971</v>
       </c>
       <c r="T11">
-        <v>1.002087884556346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9778489660265587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7997830995241434</v>
+        <v>1.404667167479996</v>
       </c>
       <c r="D12">
-        <v>0.7496650844597289</v>
+        <v>0.8192004398949468</v>
       </c>
       <c r="E12">
-        <v>1.137698033442855</v>
+        <v>0.8192004398949468</v>
       </c>
       <c r="F12">
-        <v>0.7997830995241434</v>
+        <v>0.9046973195894729</v>
       </c>
       <c r="G12">
-        <v>0.9597020113045043</v>
+        <v>1.031192405810526</v>
       </c>
       <c r="H12">
-        <v>1.008178661707157</v>
+        <v>0.8781127026111538</v>
       </c>
       <c r="I12">
-        <v>1.044120691818265</v>
+        <v>0.8875970643852644</v>
       </c>
       <c r="J12">
-        <v>0.7496650844597289</v>
+        <v>1.404667167479996</v>
       </c>
       <c r="K12">
-        <v>0.7997830995241434</v>
+        <v>1.404667167479996</v>
       </c>
       <c r="L12">
-        <v>1.137698033442855</v>
+        <v>0.9046973195894729</v>
       </c>
       <c r="M12">
-        <v>0.9436815589512921</v>
+        <v>0.8619488797422099</v>
       </c>
       <c r="N12">
-        <v>0.9436815589512921</v>
+        <v>0.8619488797422099</v>
       </c>
       <c r="O12">
-        <v>0.9651805932032471</v>
+        <v>0.870498274623228</v>
       </c>
       <c r="P12">
-        <v>0.8957154058089092</v>
+        <v>1.042854975654805</v>
       </c>
       <c r="Q12">
-        <v>0.8957154058089092</v>
+        <v>1.042854975654805</v>
       </c>
       <c r="R12">
-        <v>0.8717323292377177</v>
+        <v>1.133308023611103</v>
       </c>
       <c r="S12">
-        <v>0.8717323292377177</v>
+        <v>1.133308023611103</v>
       </c>
       <c r="T12">
-        <v>0.9498579303761089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9875778499618934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.212438411798979</v>
+        <v>0.9865520076879692</v>
       </c>
       <c r="D13">
-        <v>1.268981835564235</v>
+        <v>1.164790025901699</v>
       </c>
       <c r="E13">
-        <v>0.830276611624532</v>
+        <v>1.164790025901699</v>
       </c>
       <c r="F13">
-        <v>1.212438411798979</v>
+        <v>0.9607708408790863</v>
       </c>
       <c r="G13">
-        <v>1.142429010762398</v>
+        <v>0.9680944969205068</v>
       </c>
       <c r="H13">
-        <v>0.9921217950800019</v>
+        <v>0.9819036849905249</v>
       </c>
       <c r="I13">
-        <v>0.9406486785693514</v>
+        <v>1.047166561649063</v>
       </c>
       <c r="J13">
-        <v>1.268981835564235</v>
+        <v>0.9865520076879692</v>
       </c>
       <c r="K13">
-        <v>1.212438411798979</v>
+        <v>0.9865520076879692</v>
       </c>
       <c r="L13">
-        <v>0.830276611624532</v>
+        <v>0.9607708408790863</v>
       </c>
       <c r="M13">
-        <v>1.049629223594384</v>
+        <v>1.062780433390393</v>
       </c>
       <c r="N13">
-        <v>1.049629223594384</v>
+        <v>1.062780433390393</v>
       </c>
       <c r="O13">
-        <v>1.030460080756256</v>
+        <v>1.057575809476616</v>
       </c>
       <c r="P13">
-        <v>1.103898952995915</v>
+        <v>1.037370958156252</v>
       </c>
       <c r="Q13">
-        <v>1.103898952995915</v>
+        <v>1.037370958156252</v>
       </c>
       <c r="R13">
-        <v>1.131033817696681</v>
+        <v>1.024666220539181</v>
       </c>
       <c r="S13">
-        <v>1.131033817696681</v>
+        <v>1.024666220539181</v>
       </c>
       <c r="T13">
-        <v>1.064482723899916</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.018212936338142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.240470240414135</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="D14">
-        <v>3.635942637510909</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="E14">
-        <v>0.4758779848770468</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="F14">
-        <v>0.240470240414135</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="G14">
-        <v>0.04375825964634195</v>
+        <v>1.134</v>
       </c>
       <c r="H14">
-        <v>2.166991480852296</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="I14">
-        <v>0.4076798692637058</v>
+        <v>0.3913456500000007</v>
       </c>
       <c r="J14">
-        <v>3.635942637510909</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="K14">
-        <v>0.240470240414135</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="L14">
-        <v>0.4758779848770468</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="M14">
-        <v>2.055910311193978</v>
+        <v>0.2224524380000003</v>
       </c>
       <c r="N14">
-        <v>2.055910311193978</v>
+        <v>0.2224524380000003</v>
       </c>
       <c r="O14">
-        <v>2.09293736774675</v>
+        <v>0.2787501753333337</v>
       </c>
       <c r="P14">
-        <v>1.45076362093403</v>
+        <v>1.295922358666668</v>
       </c>
       <c r="Q14">
-        <v>1.45076362093403</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R14">
-        <v>1.148190275804056</v>
+        <v>1.832657319000001</v>
       </c>
       <c r="S14">
-        <v>1.148190275804056</v>
+        <v>1.832657319000001</v>
       </c>
       <c r="T14">
-        <v>1.161786745427406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9378199343333339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8386491562959589</v>
+        <v>0.023300756</v>
       </c>
       <c r="D15">
-        <v>1.139827550582419</v>
+        <v>6.8875632</v>
       </c>
       <c r="E15">
-        <v>0.9237306816719273</v>
+        <v>6.8875632</v>
       </c>
       <c r="F15">
-        <v>0.8386491562959589</v>
+        <v>0.14230601</v>
       </c>
       <c r="G15">
-        <v>0.3732002823117419</v>
+        <v>0.10214557</v>
       </c>
       <c r="H15">
-        <v>1.351062220515084</v>
+        <v>0.0017993233</v>
       </c>
       <c r="I15">
-        <v>0.8973540345668157</v>
+        <v>2.4148578</v>
       </c>
       <c r="J15">
-        <v>1.139827550582419</v>
+        <v>0.023300756</v>
       </c>
       <c r="K15">
-        <v>0.8386491562959589</v>
+        <v>0.023300756</v>
       </c>
       <c r="L15">
-        <v>0.9237306816719273</v>
+        <v>0.14230601</v>
       </c>
       <c r="M15">
-        <v>1.031779116127173</v>
+        <v>3.514934605</v>
       </c>
       <c r="N15">
-        <v>1.031779116127173</v>
+        <v>3.514934605</v>
       </c>
       <c r="O15">
-        <v>1.13820681758981</v>
+        <v>3.148242336666667</v>
       </c>
       <c r="P15">
-        <v>0.967402462850102</v>
+        <v>2.351056655333334</v>
       </c>
       <c r="Q15">
-        <v>0.9674024628501018</v>
+        <v>2.351056655333334</v>
       </c>
       <c r="R15">
-        <v>0.9352141362115661</v>
+        <v>1.7691176805</v>
       </c>
       <c r="S15">
-        <v>0.9352141362115661</v>
+        <v>1.7691176805</v>
       </c>
       <c r="T15">
-        <v>0.9206373209906579</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.59532877655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.004216966280962</v>
+        <v>3.4428622</v>
       </c>
       <c r="D16">
-        <v>0.9952012888710973</v>
+        <v>0.023300756</v>
       </c>
       <c r="E16">
-        <v>0.9997145052085106</v>
+        <v>0.023300756</v>
       </c>
       <c r="F16">
-        <v>1.004216966280962</v>
+        <v>0.42160412</v>
       </c>
       <c r="G16">
-        <v>0.9933064491990004</v>
+        <v>1.134</v>
       </c>
       <c r="H16">
-        <v>0.9996261787578736</v>
+        <v>0.21380688</v>
       </c>
       <c r="I16">
-        <v>1.000761828579399</v>
+        <v>0.39134565</v>
       </c>
       <c r="J16">
-        <v>0.9952012888710973</v>
+        <v>3.4428622</v>
       </c>
       <c r="K16">
-        <v>1.004216966280962</v>
+        <v>3.4428622</v>
       </c>
       <c r="L16">
-        <v>0.9997145052085106</v>
+        <v>0.42160412</v>
       </c>
       <c r="M16">
-        <v>0.9974578970398039</v>
+        <v>0.222452438</v>
       </c>
       <c r="N16">
-        <v>0.9974578970398039</v>
+        <v>0.222452438</v>
       </c>
       <c r="O16">
-        <v>0.9981806576124939</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P16">
-        <v>0.9997109201201898</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q16">
-        <v>0.9997109201201898</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R16">
-        <v>1.000837431660383</v>
+        <v>1.832657319</v>
       </c>
       <c r="S16">
-        <v>1.000837431660383</v>
+        <v>1.832657319</v>
       </c>
       <c r="T16">
-        <v>0.9988045361494736</v>
+        <v>0.9378199343333332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9974414663356085</v>
+        <v>0.21658931</v>
       </c>
       <c r="D17">
-        <v>1.005127200166364</v>
+        <v>3.4457045</v>
       </c>
       <c r="E17">
-        <v>0.9994180783567008</v>
+        <v>3.4457045</v>
       </c>
       <c r="F17">
-        <v>0.9974414663356085</v>
+        <v>0.38954228</v>
       </c>
       <c r="G17">
-        <v>1.008239703266212</v>
+        <v>0.3576419</v>
       </c>
       <c r="H17">
-        <v>0.999768070948635</v>
+        <v>0.017301633</v>
       </c>
       <c r="I17">
-        <v>0.999159045820057</v>
+        <v>2.3283159</v>
       </c>
       <c r="J17">
-        <v>1.005127200166364</v>
+        <v>0.21658931</v>
       </c>
       <c r="K17">
-        <v>0.9974414663356085</v>
+        <v>0.21658931</v>
       </c>
       <c r="L17">
-        <v>0.9994180783567008</v>
+        <v>0.38954228</v>
       </c>
       <c r="M17">
-        <v>1.002272639261533</v>
+        <v>1.91762339</v>
       </c>
       <c r="N17">
-        <v>1.002272639261533</v>
+        <v>1.91762339</v>
       </c>
       <c r="O17">
-        <v>1.001437783157233</v>
+        <v>2.054520893333333</v>
       </c>
       <c r="P17">
-        <v>1.000662248286225</v>
+        <v>1.35061203</v>
       </c>
       <c r="Q17">
-        <v>1.000662248286225</v>
+        <v>1.35061203</v>
       </c>
       <c r="R17">
-        <v>0.9998570527985706</v>
+        <v>1.06710635</v>
       </c>
       <c r="S17">
-        <v>0.9998570527985706</v>
+        <v>1.06710635</v>
       </c>
       <c r="T17">
-        <v>1.00152559414893</v>
+        <v>1.125849253833333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.007165445647784</v>
+        <v>0.7548764528219182</v>
       </c>
       <c r="D18">
-        <v>0.9910886276511572</v>
+        <v>1.302335194706849</v>
       </c>
       <c r="E18">
-        <v>1.002767888970694</v>
+        <v>1.302335194706849</v>
       </c>
       <c r="F18">
-        <v>1.007165445647784</v>
+        <v>1.127535245342466</v>
       </c>
       <c r="G18">
-        <v>0.9938949339722025</v>
+        <v>0.9901251993150681</v>
       </c>
       <c r="H18">
-        <v>0.9958642254513111</v>
+        <v>1.805248583839726</v>
       </c>
       <c r="I18">
-        <v>1.002147148492731</v>
+        <v>0.8321511001095889</v>
       </c>
       <c r="J18">
-        <v>0.9910886276511572</v>
+        <v>0.7548764528219182</v>
       </c>
       <c r="K18">
-        <v>1.007165445647784</v>
+        <v>0.7548764528219182</v>
       </c>
       <c r="L18">
-        <v>1.002767888970694</v>
+        <v>1.127535245342466</v>
       </c>
       <c r="M18">
-        <v>0.9969282583109257</v>
+        <v>1.214935220024657</v>
       </c>
       <c r="N18">
-        <v>0.9969282583109257</v>
+        <v>1.214935220024657</v>
       </c>
       <c r="O18">
-        <v>0.9965735806910542</v>
+        <v>1.087340513386301</v>
       </c>
       <c r="P18">
-        <v>1.000340654089878</v>
+        <v>1.061582297623744</v>
       </c>
       <c r="Q18">
-        <v>1.000340654089878</v>
+        <v>1.061582297623745</v>
       </c>
       <c r="R18">
-        <v>1.002046851979355</v>
+        <v>0.9849058364232879</v>
       </c>
       <c r="S18">
-        <v>1.002046851979355</v>
+        <v>0.9849058364232879</v>
       </c>
       <c r="T18">
-        <v>0.9988213783643133</v>
+        <v>1.135378629355936</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.021554414375299</v>
+        <v>1.341504682947369</v>
       </c>
       <c r="D19">
-        <v>0.959140592634957</v>
+        <v>2.313446413578948</v>
       </c>
       <c r="E19">
-        <v>1.008737280630876</v>
+        <v>2.313446413578948</v>
       </c>
       <c r="F19">
-        <v>1.021554414375299</v>
+        <v>0.4148450784210526</v>
       </c>
       <c r="G19">
-        <v>0.9642719728820629</v>
+        <v>0.6632488847368421</v>
       </c>
       <c r="H19">
-        <v>0.9907299392810377</v>
+        <v>0.08656499415263157</v>
       </c>
       <c r="I19">
-        <v>1.008482651634279</v>
+        <v>1.587143551578947</v>
       </c>
       <c r="J19">
-        <v>0.959140592634957</v>
+        <v>1.341504682947369</v>
       </c>
       <c r="K19">
-        <v>1.021554414375299</v>
+        <v>1.341504682947369</v>
       </c>
       <c r="L19">
-        <v>1.008737280630876</v>
+        <v>0.4148450784210526</v>
       </c>
       <c r="M19">
-        <v>0.9839389366329163</v>
+        <v>1.364145746</v>
       </c>
       <c r="N19">
-        <v>0.9839389366329163</v>
+        <v>1.364145746</v>
       </c>
       <c r="O19">
-        <v>0.9862026041822901</v>
+        <v>1.438478347859649</v>
       </c>
       <c r="P19">
-        <v>0.9964774292137107</v>
+        <v>1.356598724982456</v>
       </c>
       <c r="Q19">
-        <v>0.9964774292137107</v>
+        <v>1.356598724982456</v>
       </c>
       <c r="R19">
-        <v>1.002746675504108</v>
+        <v>1.352825214473684</v>
       </c>
       <c r="S19">
-        <v>1.002746675504108</v>
+        <v>1.352825214473684</v>
       </c>
       <c r="T19">
-        <v>0.9921528085730854</v>
+        <v>1.067792267569298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.8159869238421055</v>
+      </c>
+      <c r="D20">
+        <v>1.342166235863158</v>
+      </c>
+      <c r="E20">
+        <v>1.342166235863158</v>
+      </c>
+      <c r="F20">
+        <v>1.095994567894737</v>
+      </c>
+      <c r="G20">
+        <v>0.9822274357894737</v>
+      </c>
+      <c r="H20">
+        <v>1.739638943468421</v>
+      </c>
+      <c r="I20">
+        <v>0.8413760448421054</v>
+      </c>
+      <c r="J20">
+        <v>0.8159869238421055</v>
+      </c>
+      <c r="K20">
+        <v>0.8159869238421055</v>
+      </c>
+      <c r="L20">
+        <v>1.095994567894737</v>
+      </c>
+      <c r="M20">
+        <v>1.219080401878947</v>
+      </c>
+      <c r="N20">
+        <v>1.219080401878947</v>
+      </c>
+      <c r="O20">
+        <v>1.093178949533333</v>
+      </c>
+      <c r="P20">
+        <v>1.0847159092</v>
+      </c>
+      <c r="Q20">
+        <v>1.0847159092</v>
+      </c>
+      <c r="R20">
+        <v>1.017533662860526</v>
+      </c>
+      <c r="S20">
+        <v>1.017533662860526</v>
+      </c>
+      <c r="T20">
+        <v>1.13623169195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.2404702404141349</v>
+      </c>
+      <c r="D21">
+        <v>3.635942637510909</v>
+      </c>
+      <c r="E21">
+        <v>3.635942637510909</v>
+      </c>
+      <c r="F21">
+        <v>0.4758779848770468</v>
+      </c>
+      <c r="G21">
+        <v>0.4076798692637056</v>
+      </c>
+      <c r="H21">
+        <v>0.04375825964634195</v>
+      </c>
+      <c r="I21">
+        <v>2.166991480852296</v>
+      </c>
+      <c r="J21">
+        <v>0.2404702404141349</v>
+      </c>
+      <c r="K21">
+        <v>0.2404702404141349</v>
+      </c>
+      <c r="L21">
+        <v>0.4758779848770468</v>
+      </c>
+      <c r="M21">
+        <v>2.055910311193978</v>
+      </c>
+      <c r="N21">
+        <v>2.055910311193978</v>
+      </c>
+      <c r="O21">
+        <v>2.09293736774675</v>
+      </c>
+      <c r="P21">
+        <v>1.45076362093403</v>
+      </c>
+      <c r="Q21">
+        <v>1.45076362093403</v>
+      </c>
+      <c r="R21">
+        <v>1.148190275804056</v>
+      </c>
+      <c r="S21">
+        <v>1.148190275804056</v>
+      </c>
+      <c r="T21">
+        <v>1.161786745427406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.8386491562959589</v>
+      </c>
+      <c r="D22">
+        <v>1.139827550582419</v>
+      </c>
+      <c r="E22">
+        <v>1.139827550582419</v>
+      </c>
+      <c r="F22">
+        <v>0.9237306816719273</v>
+      </c>
+      <c r="G22">
+        <v>0.8973540345668158</v>
+      </c>
+      <c r="H22">
+        <v>0.3732002823117419</v>
+      </c>
+      <c r="I22">
+        <v>1.351062220515084</v>
+      </c>
+      <c r="J22">
+        <v>0.8386491562959589</v>
+      </c>
+      <c r="K22">
+        <v>0.8386491562959589</v>
+      </c>
+      <c r="L22">
+        <v>0.9237306816719273</v>
+      </c>
+      <c r="M22">
+        <v>1.031779116127173</v>
+      </c>
+      <c r="N22">
+        <v>1.031779116127173</v>
+      </c>
+      <c r="O22">
+        <v>1.13820681758981</v>
+      </c>
+      <c r="P22">
+        <v>0.967402462850102</v>
+      </c>
+      <c r="Q22">
+        <v>0.9674024628501018</v>
+      </c>
+      <c r="R22">
+        <v>0.9352141362115661</v>
+      </c>
+      <c r="S22">
+        <v>0.9352141362115661</v>
+      </c>
+      <c r="T22">
+        <v>0.9206373209906579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.7997830995241429</v>
+      </c>
+      <c r="D23">
+        <v>0.7496650844597287</v>
+      </c>
+      <c r="E23">
+        <v>0.7496650844597287</v>
+      </c>
+      <c r="F23">
+        <v>1.137698033442856</v>
+      </c>
+      <c r="G23">
+        <v>1.044120691818265</v>
+      </c>
+      <c r="H23">
+        <v>0.9597020113045045</v>
+      </c>
+      <c r="I23">
+        <v>1.008178661707157</v>
+      </c>
+      <c r="J23">
+        <v>0.7997830995241429</v>
+      </c>
+      <c r="K23">
+        <v>0.7997830995241429</v>
+      </c>
+      <c r="L23">
+        <v>1.137698033442856</v>
+      </c>
+      <c r="M23">
+        <v>0.9436815589512921</v>
+      </c>
+      <c r="N23">
+        <v>0.9436815589512921</v>
+      </c>
+      <c r="O23">
+        <v>0.9651805932032471</v>
+      </c>
+      <c r="P23">
+        <v>0.8957154058089091</v>
+      </c>
+      <c r="Q23">
+        <v>0.8957154058089092</v>
+      </c>
+      <c r="R23">
+        <v>0.8717323292377176</v>
+      </c>
+      <c r="S23">
+        <v>0.8717323292377176</v>
+      </c>
+      <c r="T23">
+        <v>0.9498579303761089</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="D24">
+        <v>1.268981835564235</v>
+      </c>
+      <c r="E24">
+        <v>1.268981835564235</v>
+      </c>
+      <c r="F24">
+        <v>0.830276611624532</v>
+      </c>
+      <c r="G24">
+        <v>0.9406486785693515</v>
+      </c>
+      <c r="H24">
+        <v>1.142429010762399</v>
+      </c>
+      <c r="I24">
+        <v>0.9921217950800018</v>
+      </c>
+      <c r="J24">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="K24">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="L24">
+        <v>0.830276611624532</v>
+      </c>
+      <c r="M24">
+        <v>1.049629223594384</v>
+      </c>
+      <c r="N24">
+        <v>1.049629223594384</v>
+      </c>
+      <c r="O24">
+        <v>1.030460080756256</v>
+      </c>
+      <c r="P24">
+        <v>1.103898952995915</v>
+      </c>
+      <c r="Q24">
+        <v>1.103898952995915</v>
+      </c>
+      <c r="R24">
+        <v>1.131033817696681</v>
+      </c>
+      <c r="S24">
+        <v>1.131033817696681</v>
+      </c>
+      <c r="T24">
+        <v>1.064482723899916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.5393055635557686</v>
+      </c>
+      <c r="D25">
+        <v>0.01541286061306674</v>
+      </c>
+      <c r="E25">
+        <v>0.01541286061306674</v>
+      </c>
+      <c r="F25">
+        <v>1.636972449125893</v>
+      </c>
+      <c r="G25">
+        <v>1.320394224057432</v>
+      </c>
+      <c r="H25">
+        <v>3.239353708501929</v>
+      </c>
+      <c r="I25">
+        <v>0.1299080222276128</v>
+      </c>
+      <c r="J25">
+        <v>0.5393055635557686</v>
+      </c>
+      <c r="K25">
+        <v>0.5393055635557686</v>
+      </c>
+      <c r="L25">
+        <v>1.636972449125893</v>
+      </c>
+      <c r="M25">
+        <v>0.82619265486948</v>
+      </c>
+      <c r="N25">
+        <v>0.82619265486948</v>
+      </c>
+      <c r="O25">
+        <v>0.5940977773221909</v>
+      </c>
+      <c r="P25">
+        <v>0.7305636244315762</v>
+      </c>
+      <c r="Q25">
+        <v>0.7305636244315762</v>
+      </c>
+      <c r="R25">
+        <v>0.6827491092126243</v>
+      </c>
+      <c r="S25">
+        <v>0.6827491092126243</v>
+      </c>
+      <c r="T25">
+        <v>1.146891138013617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.409578004869539</v>
+      </c>
+      <c r="D26">
+        <v>0.2282703272202107</v>
+      </c>
+      <c r="E26">
+        <v>0.2282703272202107</v>
+      </c>
+      <c r="F26">
+        <v>1.131783605331437</v>
+      </c>
+      <c r="G26">
+        <v>1.216750179240604</v>
+      </c>
+      <c r="H26">
+        <v>0.6710635157005971</v>
+      </c>
+      <c r="I26">
+        <v>0.6777199424130483</v>
+      </c>
+      <c r="J26">
+        <v>1.409578004869539</v>
+      </c>
+      <c r="K26">
+        <v>1.409578004869539</v>
+      </c>
+      <c r="L26">
+        <v>1.131783605331437</v>
+      </c>
+      <c r="M26">
+        <v>0.6800269662758236</v>
+      </c>
+      <c r="N26">
+        <v>0.6800269662758236</v>
+      </c>
+      <c r="O26">
+        <v>0.6792579583215651</v>
+      </c>
+      <c r="P26">
+        <v>0.9232106458070621</v>
+      </c>
+      <c r="Q26">
+        <v>0.9232106458070621</v>
+      </c>
+      <c r="R26">
+        <v>1.044802485572681</v>
+      </c>
+      <c r="S26">
+        <v>1.044802485572681</v>
+      </c>
+      <c r="T26">
+        <v>0.8891942624625727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9664443216067362</v>
+      </c>
+      <c r="D27">
+        <v>0.8799281347641448</v>
+      </c>
+      <c r="E27">
+        <v>0.8799281347641448</v>
+      </c>
+      <c r="F27">
+        <v>1.039176766960464</v>
+      </c>
+      <c r="G27">
+        <v>1.008743120901387</v>
+      </c>
+      <c r="H27">
+        <v>1.063381027047922</v>
+      </c>
+      <c r="I27">
+        <v>0.9820780324749064</v>
+      </c>
+      <c r="J27">
+        <v>0.9664443216067362</v>
+      </c>
+      <c r="K27">
+        <v>0.9664443216067362</v>
+      </c>
+      <c r="L27">
+        <v>1.039176766960464</v>
+      </c>
+      <c r="M27">
+        <v>0.9595524508623045</v>
+      </c>
+      <c r="N27">
+        <v>0.9595524508623045</v>
+      </c>
+      <c r="O27">
+        <v>0.9670609780665052</v>
+      </c>
+      <c r="P27">
+        <v>0.9618497411104484</v>
+      </c>
+      <c r="Q27">
+        <v>0.9618497411104484</v>
+      </c>
+      <c r="R27">
+        <v>0.9629983862345204</v>
+      </c>
+      <c r="S27">
+        <v>0.9629983862345204</v>
+      </c>
+      <c r="T27">
+        <v>0.9899585672925935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.850064924454385</v>
+      </c>
+      <c r="D28">
+        <v>1.127388372737343</v>
+      </c>
+      <c r="E28">
+        <v>1.127388372737343</v>
+      </c>
+      <c r="F28">
+        <v>1.068205745052721</v>
+      </c>
+      <c r="G28">
+        <v>0.9782155479567316</v>
+      </c>
+      <c r="H28">
+        <v>1.13809338825602</v>
+      </c>
+      <c r="I28">
+        <v>1.004131391984682</v>
+      </c>
+      <c r="J28">
+        <v>0.850064924454385</v>
+      </c>
+      <c r="K28">
+        <v>0.850064924454385</v>
+      </c>
+      <c r="L28">
+        <v>1.068205745052721</v>
+      </c>
+      <c r="M28">
+        <v>1.097797058895032</v>
+      </c>
+      <c r="N28">
+        <v>1.097797058895032</v>
+      </c>
+      <c r="O28">
+        <v>1.066575169924915</v>
+      </c>
+      <c r="P28">
+        <v>1.01521968074815</v>
+      </c>
+      <c r="Q28">
+        <v>1.01521968074815</v>
+      </c>
+      <c r="R28">
+        <v>0.9739309916747083</v>
+      </c>
+      <c r="S28">
+        <v>0.9739309916747083</v>
+      </c>
+      <c r="T28">
+        <v>1.02768322840698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8804038564634685</v>
+      </c>
+      <c r="D29">
+        <v>1.671020857415538</v>
+      </c>
+      <c r="E29">
+        <v>1.671020857415538</v>
+      </c>
+      <c r="F29">
+        <v>0.8943972772203008</v>
+      </c>
+      <c r="G29">
+        <v>0.8545759653367958</v>
+      </c>
+      <c r="H29">
+        <v>1.377010916546527</v>
+      </c>
+      <c r="I29">
+        <v>1.094193284793078</v>
+      </c>
+      <c r="J29">
+        <v>0.8804038564634685</v>
+      </c>
+      <c r="K29">
+        <v>0.8804038564634685</v>
+      </c>
+      <c r="L29">
+        <v>0.8943972772203008</v>
+      </c>
+      <c r="M29">
+        <v>1.282709067317919</v>
+      </c>
+      <c r="N29">
+        <v>1.282709067317919</v>
+      </c>
+      <c r="O29">
+        <v>1.219870473142972</v>
+      </c>
+      <c r="P29">
+        <v>1.148607330366436</v>
+      </c>
+      <c r="Q29">
+        <v>1.148607330366436</v>
+      </c>
+      <c r="R29">
+        <v>1.081556461890694</v>
+      </c>
+      <c r="S29">
+        <v>1.081556461890694</v>
+      </c>
+      <c r="T29">
+        <v>1.128600359629284</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.205658809073799</v>
+        <v>1.23508634909403</v>
       </c>
       <c r="D4">
-        <v>0.8986369109390666</v>
+        <v>0.8297629789073429</v>
       </c>
       <c r="E4">
-        <v>0.8986369109390666</v>
+        <v>0.8297629789073429</v>
       </c>
       <c r="F4">
-        <v>0.9486494071342561</v>
+        <v>0.960755595370459</v>
       </c>
       <c r="G4">
-        <v>1.017447450705315</v>
+        <v>1.031880012124271</v>
       </c>
       <c r="H4">
-        <v>0.9182952508329895</v>
+        <v>0.9436532248701144</v>
       </c>
       <c r="I4">
-        <v>0.9476070816614462</v>
+        <v>0.9150394753235354</v>
       </c>
       <c r="J4">
-        <v>1.205658809073799</v>
+        <v>1.23508634909403</v>
       </c>
       <c r="K4">
-        <v>1.205658809073799</v>
+        <v>1.23508634909403</v>
       </c>
       <c r="L4">
-        <v>0.9486494071342561</v>
+        <v>0.960755595370459</v>
       </c>
       <c r="M4">
-        <v>0.9236431590366614</v>
+        <v>0.8952592871389009</v>
       </c>
       <c r="N4">
-        <v>0.9236431590366614</v>
+        <v>0.8952592871389009</v>
       </c>
       <c r="O4">
-        <v>0.931631133244923</v>
+        <v>0.9018526832004458</v>
       </c>
       <c r="P4">
-        <v>1.017648375715707</v>
+        <v>1.008534974457277</v>
       </c>
       <c r="Q4">
-        <v>1.017648375715707</v>
+        <v>1.008534974457277</v>
       </c>
       <c r="R4">
-        <v>1.06465098405523</v>
+        <v>1.065172818116466</v>
       </c>
       <c r="S4">
-        <v>1.06465098405523</v>
+        <v>1.065172818116466</v>
       </c>
       <c r="T4">
-        <v>0.9893824850578121</v>
+        <v>0.9860296059482921</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.267623904252883</v>
+        <v>0.6309581088817445</v>
       </c>
       <c r="D5">
-        <v>0.8477808095912102</v>
+        <v>1.313038111058897</v>
       </c>
       <c r="E5">
-        <v>0.8477808095912102</v>
+        <v>1.313038111058897</v>
       </c>
       <c r="F5">
-        <v>0.9498403545749273</v>
+        <v>1.170963114224045</v>
       </c>
       <c r="G5">
-        <v>1.028978949899135</v>
+        <v>0.9899176364499446</v>
       </c>
       <c r="H5">
-        <v>0.9505008452391173</v>
+        <v>1.900281771655763</v>
       </c>
       <c r="I5">
-        <v>0.9063496410389065</v>
+        <v>0.8404820857185005</v>
       </c>
       <c r="J5">
-        <v>1.267623904252883</v>
+        <v>0.6309581088817445</v>
       </c>
       <c r="K5">
-        <v>1.267623904252883</v>
+        <v>0.6309581088817445</v>
       </c>
       <c r="L5">
-        <v>0.9498403545749273</v>
+        <v>1.170963114224045</v>
       </c>
       <c r="M5">
-        <v>0.8988105820830687</v>
+        <v>1.242000612641471</v>
       </c>
       <c r="N5">
-        <v>0.8988105820830687</v>
+        <v>1.242000612641471</v>
       </c>
       <c r="O5">
-        <v>0.9013236017350147</v>
+        <v>1.108161103667147</v>
       </c>
       <c r="P5">
-        <v>1.021748356139674</v>
+        <v>1.038319778054896</v>
       </c>
       <c r="Q5">
-        <v>1.021748356139673</v>
+        <v>1.038319778054896</v>
       </c>
       <c r="R5">
-        <v>1.083217243167976</v>
+        <v>0.9364793607616079</v>
       </c>
       <c r="S5">
-        <v>1.083217243167976</v>
+        <v>0.9364793607616079</v>
       </c>
       <c r="T5">
-        <v>0.9918457507660299</v>
+        <v>1.140940137998149</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.334482157112217</v>
+        <v>1.205658809073799</v>
       </c>
       <c r="D6">
-        <v>0.4385092129803458</v>
+        <v>0.8986369109390666</v>
       </c>
       <c r="E6">
-        <v>0.4385092129803458</v>
+        <v>0.8986369109390666</v>
       </c>
       <c r="F6">
-        <v>0.6895102014881167</v>
+        <v>0.9486494071342561</v>
       </c>
       <c r="G6">
-        <v>1.080684799888507</v>
+        <v>1.017447450705315</v>
       </c>
       <c r="H6">
-        <v>0.5747055985020091</v>
+        <v>0.9182952508329895</v>
       </c>
       <c r="I6">
-        <v>0.6580246537993393</v>
+        <v>0.9476070816614462</v>
       </c>
       <c r="J6">
-        <v>2.334482157112217</v>
+        <v>1.205658809073799</v>
       </c>
       <c r="K6">
-        <v>2.334482157112217</v>
+        <v>1.205658809073799</v>
       </c>
       <c r="L6">
-        <v>0.6895102014881167</v>
+        <v>0.9486494071342561</v>
       </c>
       <c r="M6">
-        <v>0.5640097072342313</v>
+        <v>0.9236431590366614</v>
       </c>
       <c r="N6">
-        <v>0.5640097072342313</v>
+        <v>0.9236431590366614</v>
       </c>
       <c r="O6">
-        <v>0.5953480227559339</v>
+        <v>0.931631133244923</v>
       </c>
       <c r="P6">
-        <v>1.154167190526893</v>
+        <v>1.017648375715707</v>
       </c>
       <c r="Q6">
-        <v>1.154167190526893</v>
+        <v>1.017648375715707</v>
       </c>
       <c r="R6">
-        <v>1.449245932173224</v>
+        <v>1.06465098405523</v>
       </c>
       <c r="S6">
-        <v>1.449245932173224</v>
+        <v>1.06465098405523</v>
       </c>
       <c r="T6">
-        <v>0.9626527706284224</v>
+        <v>0.9893824850578121</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.989305322038683</v>
+        <v>1.267623904252883</v>
       </c>
       <c r="D7">
-        <v>1.010403626782295</v>
+        <v>0.8477808095912102</v>
       </c>
       <c r="E7">
-        <v>1.010403626782295</v>
+        <v>0.8477808095912102</v>
       </c>
       <c r="F7">
-        <v>1.006274641959758</v>
+        <v>0.9498403545749273</v>
       </c>
       <c r="G7">
-        <v>1.000197007418612</v>
+        <v>1.028978949899135</v>
       </c>
       <c r="H7">
-        <v>1.040420257879107</v>
+        <v>0.9505008452391173</v>
       </c>
       <c r="I7">
-        <v>0.99064246943831</v>
+        <v>0.9063496410389065</v>
       </c>
       <c r="J7">
-        <v>0.989305322038683</v>
+        <v>1.267623904252883</v>
       </c>
       <c r="K7">
-        <v>0.989305322038683</v>
+        <v>1.267623904252883</v>
       </c>
       <c r="L7">
-        <v>1.006274641959758</v>
+        <v>0.9498403545749273</v>
       </c>
       <c r="M7">
-        <v>1.008339134371026</v>
+        <v>0.8988105820830687</v>
       </c>
       <c r="N7">
-        <v>1.008339134371026</v>
+        <v>0.8988105820830687</v>
       </c>
       <c r="O7">
-        <v>1.002440246060121</v>
+        <v>0.9013236017350147</v>
       </c>
       <c r="P7">
-        <v>1.001994530260245</v>
+        <v>1.021748356139674</v>
       </c>
       <c r="Q7">
-        <v>1.001994530260245</v>
+        <v>1.021748356139673</v>
       </c>
       <c r="R7">
-        <v>0.9988222282048547</v>
+        <v>1.083217243167976</v>
       </c>
       <c r="S7">
-        <v>0.9988222282048547</v>
+        <v>1.083217243167976</v>
       </c>
       <c r="T7">
-        <v>1.006207220919461</v>
+        <v>0.9918457507660299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9974414663356086</v>
+        <v>2.334482157112217</v>
       </c>
       <c r="D8">
-        <v>1.005127200166364</v>
+        <v>0.4385092129803458</v>
       </c>
       <c r="E8">
-        <v>1.005127200166364</v>
+        <v>0.4385092129803458</v>
       </c>
       <c r="F8">
-        <v>0.9994180783567008</v>
+        <v>0.6895102014881167</v>
       </c>
       <c r="G8">
-        <v>0.999159045820057</v>
+        <v>1.080684799888507</v>
       </c>
       <c r="H8">
-        <v>1.008239703266212</v>
+        <v>0.5747055985020091</v>
       </c>
       <c r="I8">
-        <v>0.9997680709486343</v>
+        <v>0.6580246537993393</v>
       </c>
       <c r="J8">
-        <v>0.9974414663356086</v>
+        <v>2.334482157112217</v>
       </c>
       <c r="K8">
-        <v>0.9974414663356086</v>
+        <v>2.334482157112217</v>
       </c>
       <c r="L8">
-        <v>0.9994180783567008</v>
+        <v>0.6895102014881167</v>
       </c>
       <c r="M8">
-        <v>1.002272639261533</v>
+        <v>0.5640097072342313</v>
       </c>
       <c r="N8">
-        <v>1.002272639261533</v>
+        <v>0.5640097072342313</v>
       </c>
       <c r="O8">
-        <v>1.001437783157233</v>
+        <v>0.5953480227559339</v>
       </c>
       <c r="P8">
-        <v>1.000662248286225</v>
+        <v>1.154167190526893</v>
       </c>
       <c r="Q8">
-        <v>1.000662248286225</v>
+        <v>1.154167190526893</v>
       </c>
       <c r="R8">
-        <v>0.9998570527985706</v>
+        <v>1.449245932173224</v>
       </c>
       <c r="S8">
-        <v>0.9998570527985706</v>
+        <v>1.449245932173224</v>
       </c>
       <c r="T8">
-        <v>1.001525594148929</v>
+        <v>0.9626527706284224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9845095129184515</v>
+        <v>0.989305322038683</v>
       </c>
       <c r="D9">
-        <v>1.018061987890342</v>
+        <v>1.010403626782295</v>
       </c>
       <c r="E9">
-        <v>1.018061987890342</v>
+        <v>1.010403626782295</v>
       </c>
       <c r="F9">
-        <v>1.010594042399899</v>
+        <v>1.006274641959758</v>
       </c>
       <c r="G9">
-        <v>1.000074649135165</v>
+        <v>1.000197007418612</v>
       </c>
       <c r="H9">
-        <v>1.066965948100107</v>
+        <v>1.040420257879107</v>
       </c>
       <c r="I9">
-        <v>0.9837597894164486</v>
+        <v>0.99064246943831</v>
       </c>
       <c r="J9">
-        <v>0.9845095129184515</v>
+        <v>0.989305322038683</v>
       </c>
       <c r="K9">
-        <v>0.9845095129184515</v>
+        <v>0.989305322038683</v>
       </c>
       <c r="L9">
-        <v>1.010594042399899</v>
+        <v>1.006274641959758</v>
       </c>
       <c r="M9">
-        <v>1.01432801514512</v>
+        <v>1.008339134371026</v>
       </c>
       <c r="N9">
-        <v>1.01432801514512</v>
+        <v>1.008339134371026</v>
       </c>
       <c r="O9">
-        <v>1.004138606568896</v>
+        <v>1.002440246060121</v>
       </c>
       <c r="P9">
-        <v>1.004388514402897</v>
+        <v>1.001994530260245</v>
       </c>
       <c r="Q9">
-        <v>1.004388514402897</v>
+        <v>1.001994530260245</v>
       </c>
       <c r="R9">
-        <v>0.9994187640317859</v>
+        <v>0.9988222282048547</v>
       </c>
       <c r="S9">
-        <v>0.9994187640317859</v>
+        <v>0.9988222282048547</v>
       </c>
       <c r="T9">
-        <v>1.010660988310069</v>
+        <v>1.006207220919461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.381196502040565</v>
+        <v>0.9974414663356086</v>
       </c>
       <c r="D10">
-        <v>0.4433765392047035</v>
+        <v>1.005127200166364</v>
       </c>
       <c r="E10">
-        <v>0.4433765392047035</v>
+        <v>1.005127200166364</v>
       </c>
       <c r="F10">
-        <v>0.6719721326797238</v>
+        <v>0.9994180783567008</v>
       </c>
       <c r="G10">
-        <v>1.080026445294189</v>
+        <v>0.999159045820057</v>
       </c>
       <c r="H10">
-        <v>0.5598695232096317</v>
+        <v>1.008239703266212</v>
       </c>
       <c r="I10">
-        <v>0.6503991993635087</v>
+        <v>0.9997680709486343</v>
       </c>
       <c r="J10">
-        <v>2.381196502040565</v>
+        <v>0.9974414663356086</v>
       </c>
       <c r="K10">
-        <v>2.381196502040565</v>
+        <v>0.9974414663356086</v>
       </c>
       <c r="L10">
-        <v>0.6719721326797238</v>
+        <v>0.9994180783567008</v>
       </c>
       <c r="M10">
-        <v>0.5576743359422136</v>
+        <v>1.002272639261533</v>
       </c>
       <c r="N10">
-        <v>0.5576743359422136</v>
+        <v>1.002272639261533</v>
       </c>
       <c r="O10">
-        <v>0.5885826237493119</v>
+        <v>1.001437783157233</v>
       </c>
       <c r="P10">
-        <v>1.165515057974998</v>
+        <v>1.000662248286225</v>
       </c>
       <c r="Q10">
-        <v>1.165515057974998</v>
+        <v>1.000662248286225</v>
       </c>
       <c r="R10">
-        <v>1.469435418991389</v>
+        <v>0.9998570527985706</v>
       </c>
       <c r="S10">
-        <v>1.469435418991389</v>
+        <v>0.9998570527985706</v>
       </c>
       <c r="T10">
-        <v>0.9644733902987204</v>
+        <v>1.001525594148929</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.29652235431551</v>
+        <v>0.9845095129184515</v>
       </c>
       <c r="D11">
-        <v>0.4684520838985147</v>
+        <v>1.018061987890342</v>
       </c>
       <c r="E11">
-        <v>0.4684520838985147</v>
+        <v>1.018061987890342</v>
       </c>
       <c r="F11">
-        <v>1.07022058055835</v>
+        <v>1.010594042399899</v>
       </c>
       <c r="G11">
-        <v>1.130871255650708</v>
+        <v>1.000074649135165</v>
       </c>
       <c r="H11">
-        <v>1.193828020659943</v>
+        <v>1.066965948100107</v>
       </c>
       <c r="I11">
-        <v>0.7071995010763263</v>
+        <v>0.9837597894164486</v>
       </c>
       <c r="J11">
-        <v>1.29652235431551</v>
+        <v>0.9845095129184515</v>
       </c>
       <c r="K11">
-        <v>1.29652235431551</v>
+        <v>0.9845095129184515</v>
       </c>
       <c r="L11">
-        <v>1.07022058055835</v>
+        <v>1.010594042399899</v>
       </c>
       <c r="M11">
-        <v>0.7693363322284325</v>
+        <v>1.01432801514512</v>
       </c>
       <c r="N11">
-        <v>0.7693363322284325</v>
+        <v>1.01432801514512</v>
       </c>
       <c r="O11">
-        <v>0.7486240551777303</v>
+        <v>1.004138606568896</v>
       </c>
       <c r="P11">
-        <v>0.9450650062574583</v>
+        <v>1.004388514402897</v>
       </c>
       <c r="Q11">
-        <v>0.9450650062574583</v>
+        <v>1.004388514402897</v>
       </c>
       <c r="R11">
-        <v>1.032929343271971</v>
+        <v>0.9994187640317859</v>
       </c>
       <c r="S11">
-        <v>1.032929343271971</v>
+        <v>0.9994187640317859</v>
       </c>
       <c r="T11">
-        <v>0.9778489660265587</v>
+        <v>1.010660988310069</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.404667167479996</v>
+        <v>2.381196502040565</v>
       </c>
       <c r="D12">
-        <v>0.8192004398949468</v>
+        <v>0.4433765392047035</v>
       </c>
       <c r="E12">
-        <v>0.8192004398949468</v>
+        <v>0.4433765392047035</v>
       </c>
       <c r="F12">
-        <v>0.9046973195894729</v>
+        <v>0.6719721326797238</v>
       </c>
       <c r="G12">
-        <v>1.031192405810526</v>
+        <v>1.080026445294189</v>
       </c>
       <c r="H12">
-        <v>0.8781127026111538</v>
+        <v>0.5598695232096317</v>
       </c>
       <c r="I12">
-        <v>0.8875970643852644</v>
+        <v>0.6503991993635087</v>
       </c>
       <c r="J12">
-        <v>1.404667167479996</v>
+        <v>2.381196502040565</v>
       </c>
       <c r="K12">
-        <v>1.404667167479996</v>
+        <v>2.381196502040565</v>
       </c>
       <c r="L12">
-        <v>0.9046973195894729</v>
+        <v>0.6719721326797238</v>
       </c>
       <c r="M12">
-        <v>0.8619488797422099</v>
+        <v>0.5576743359422136</v>
       </c>
       <c r="N12">
-        <v>0.8619488797422099</v>
+        <v>0.5576743359422136</v>
       </c>
       <c r="O12">
-        <v>0.870498274623228</v>
+        <v>0.5885826237493119</v>
       </c>
       <c r="P12">
-        <v>1.042854975654805</v>
+        <v>1.165515057974998</v>
       </c>
       <c r="Q12">
-        <v>1.042854975654805</v>
+        <v>1.165515057974998</v>
       </c>
       <c r="R12">
-        <v>1.133308023611103</v>
+        <v>1.469435418991389</v>
       </c>
       <c r="S12">
-        <v>1.133308023611103</v>
+        <v>1.469435418991389</v>
       </c>
       <c r="T12">
-        <v>0.9875778499618934</v>
+        <v>0.9644733902987204</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9865520076879692</v>
+        <v>1.29652235431551</v>
       </c>
       <c r="D13">
-        <v>1.164790025901699</v>
+        <v>0.4684520838985147</v>
       </c>
       <c r="E13">
-        <v>1.164790025901699</v>
+        <v>0.4684520838985147</v>
       </c>
       <c r="F13">
-        <v>0.9607708408790863</v>
+        <v>1.07022058055835</v>
       </c>
       <c r="G13">
-        <v>0.9680944969205068</v>
+        <v>1.130871255650708</v>
       </c>
       <c r="H13">
-        <v>0.9819036849905249</v>
+        <v>1.193828020659943</v>
       </c>
       <c r="I13">
-        <v>1.047166561649063</v>
+        <v>0.7071995010763263</v>
       </c>
       <c r="J13">
-        <v>0.9865520076879692</v>
+        <v>1.29652235431551</v>
       </c>
       <c r="K13">
-        <v>0.9865520076879692</v>
+        <v>1.29652235431551</v>
       </c>
       <c r="L13">
-        <v>0.9607708408790863</v>
+        <v>1.07022058055835</v>
       </c>
       <c r="M13">
-        <v>1.062780433390393</v>
+        <v>0.7693363322284325</v>
       </c>
       <c r="N13">
-        <v>1.062780433390393</v>
+        <v>0.7693363322284325</v>
       </c>
       <c r="O13">
-        <v>1.057575809476616</v>
+        <v>0.7486240551777303</v>
       </c>
       <c r="P13">
-        <v>1.037370958156252</v>
+        <v>0.9450650062574583</v>
       </c>
       <c r="Q13">
-        <v>1.037370958156252</v>
+        <v>0.9450650062574583</v>
       </c>
       <c r="R13">
-        <v>1.024666220539181</v>
+        <v>1.032929343271971</v>
       </c>
       <c r="S13">
-        <v>1.024666220539181</v>
+        <v>1.032929343271971</v>
       </c>
       <c r="T13">
-        <v>1.018212936338142</v>
+        <v>0.9778489660265587</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>3.442862200000002</v>
+        <v>1.404667167479996</v>
       </c>
       <c r="D14">
-        <v>0.02330075600000002</v>
+        <v>0.8192004398949468</v>
       </c>
       <c r="E14">
-        <v>0.02330075600000002</v>
+        <v>0.8192004398949468</v>
       </c>
       <c r="F14">
-        <v>0.4216041200000005</v>
+        <v>0.9046973195894729</v>
       </c>
       <c r="G14">
-        <v>1.134</v>
+        <v>1.031192405810526</v>
       </c>
       <c r="H14">
-        <v>0.2138068799999999</v>
+        <v>0.8781127026111538</v>
       </c>
       <c r="I14">
-        <v>0.3913456500000007</v>
+        <v>0.8875970643852644</v>
       </c>
       <c r="J14">
-        <v>3.442862200000002</v>
+        <v>1.404667167479996</v>
       </c>
       <c r="K14">
-        <v>3.442862200000002</v>
+        <v>1.404667167479996</v>
       </c>
       <c r="L14">
-        <v>0.4216041200000005</v>
+        <v>0.9046973195894729</v>
       </c>
       <c r="M14">
-        <v>0.2224524380000003</v>
+        <v>0.8619488797422099</v>
       </c>
       <c r="N14">
-        <v>0.2224524380000003</v>
+        <v>0.8619488797422099</v>
       </c>
       <c r="O14">
-        <v>0.2787501753333337</v>
+        <v>0.870498274623228</v>
       </c>
       <c r="P14">
-        <v>1.295922358666668</v>
+        <v>1.042854975654805</v>
       </c>
       <c r="Q14">
-        <v>1.295922358666667</v>
+        <v>1.042854975654805</v>
       </c>
       <c r="R14">
-        <v>1.832657319000001</v>
+        <v>1.133308023611103</v>
       </c>
       <c r="S14">
-        <v>1.832657319000001</v>
+        <v>1.133308023611103</v>
       </c>
       <c r="T14">
-        <v>0.9378199343333339</v>
+        <v>0.9875778499618934</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.023300756</v>
+        <v>0.9865520076879692</v>
       </c>
       <c r="D15">
-        <v>6.8875632</v>
+        <v>1.164790025901699</v>
       </c>
       <c r="E15">
-        <v>6.8875632</v>
+        <v>1.164790025901699</v>
       </c>
       <c r="F15">
-        <v>0.14230601</v>
+        <v>0.9607708408790863</v>
       </c>
       <c r="G15">
-        <v>0.10214557</v>
+        <v>0.9680944969205068</v>
       </c>
       <c r="H15">
-        <v>0.0017993233</v>
+        <v>0.9819036849905249</v>
       </c>
       <c r="I15">
-        <v>2.4148578</v>
+        <v>1.047166561649063</v>
       </c>
       <c r="J15">
-        <v>0.023300756</v>
+        <v>0.9865520076879692</v>
       </c>
       <c r="K15">
-        <v>0.023300756</v>
+        <v>0.9865520076879692</v>
       </c>
       <c r="L15">
-        <v>0.14230601</v>
+        <v>0.9607708408790863</v>
       </c>
       <c r="M15">
-        <v>3.514934605</v>
+        <v>1.062780433390393</v>
       </c>
       <c r="N15">
-        <v>3.514934605</v>
+        <v>1.062780433390393</v>
       </c>
       <c r="O15">
-        <v>3.148242336666667</v>
+        <v>1.057575809476616</v>
       </c>
       <c r="P15">
-        <v>2.351056655333334</v>
+        <v>1.037370958156252</v>
       </c>
       <c r="Q15">
-        <v>2.351056655333334</v>
+        <v>1.037370958156252</v>
       </c>
       <c r="R15">
-        <v>1.7691176805</v>
+        <v>1.024666220539181</v>
       </c>
       <c r="S15">
-        <v>1.7691176805</v>
+        <v>1.024666220539181</v>
       </c>
       <c r="T15">
-        <v>1.59532877655</v>
+        <v>1.018212936338142</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>3.4428622</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="D16">
-        <v>0.023300756</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="E16">
-        <v>0.023300756</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="F16">
-        <v>0.42160412</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="G16">
         <v>1.134</v>
       </c>
       <c r="H16">
-        <v>0.21380688</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="I16">
-        <v>0.39134565</v>
+        <v>0.3913456500000007</v>
       </c>
       <c r="J16">
-        <v>3.4428622</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="K16">
-        <v>3.4428622</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="L16">
-        <v>0.42160412</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="M16">
-        <v>0.222452438</v>
+        <v>0.2224524380000003</v>
       </c>
       <c r="N16">
-        <v>0.222452438</v>
+        <v>0.2224524380000003</v>
       </c>
       <c r="O16">
-        <v>0.2787501753333333</v>
+        <v>0.2787501753333337</v>
       </c>
       <c r="P16">
-        <v>1.295922358666667</v>
+        <v>1.295922358666668</v>
       </c>
       <c r="Q16">
         <v>1.295922358666667</v>
       </c>
       <c r="R16">
-        <v>1.832657319</v>
+        <v>1.832657319000001</v>
       </c>
       <c r="S16">
-        <v>1.832657319</v>
+        <v>1.832657319000001</v>
       </c>
       <c r="T16">
-        <v>0.9378199343333332</v>
+        <v>0.9378199343333339</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.21658931</v>
+        <v>0.023300756</v>
       </c>
       <c r="D17">
-        <v>3.4457045</v>
+        <v>6.8875632</v>
       </c>
       <c r="E17">
-        <v>3.4457045</v>
+        <v>6.8875632</v>
       </c>
       <c r="F17">
-        <v>0.38954228</v>
+        <v>0.14230601</v>
       </c>
       <c r="G17">
-        <v>0.3576419</v>
+        <v>0.10214557</v>
       </c>
       <c r="H17">
-        <v>0.017301633</v>
+        <v>0.0017993233</v>
       </c>
       <c r="I17">
-        <v>2.3283159</v>
+        <v>2.4148578</v>
       </c>
       <c r="J17">
-        <v>0.21658931</v>
+        <v>0.023300756</v>
       </c>
       <c r="K17">
-        <v>0.21658931</v>
+        <v>0.023300756</v>
       </c>
       <c r="L17">
-        <v>0.38954228</v>
+        <v>0.14230601</v>
       </c>
       <c r="M17">
-        <v>1.91762339</v>
+        <v>3.514934605</v>
       </c>
       <c r="N17">
-        <v>1.91762339</v>
+        <v>3.514934605</v>
       </c>
       <c r="O17">
-        <v>2.054520893333333</v>
+        <v>3.148242336666667</v>
       </c>
       <c r="P17">
-        <v>1.35061203</v>
+        <v>2.351056655333334</v>
       </c>
       <c r="Q17">
-        <v>1.35061203</v>
+        <v>2.351056655333334</v>
       </c>
       <c r="R17">
-        <v>1.06710635</v>
+        <v>1.7691176805</v>
       </c>
       <c r="S17">
-        <v>1.06710635</v>
+        <v>1.7691176805</v>
       </c>
       <c r="T17">
-        <v>1.125849253833333</v>
+        <v>1.59532877655</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7548764528219182</v>
+        <v>3.4428622</v>
       </c>
       <c r="D18">
-        <v>1.302335194706849</v>
+        <v>0.023300756</v>
       </c>
       <c r="E18">
-        <v>1.302335194706849</v>
+        <v>0.023300756</v>
       </c>
       <c r="F18">
-        <v>1.127535245342466</v>
+        <v>0.42160412</v>
       </c>
       <c r="G18">
-        <v>0.9901251993150681</v>
+        <v>1.134</v>
       </c>
       <c r="H18">
-        <v>1.805248583839726</v>
+        <v>0.21380688</v>
       </c>
       <c r="I18">
-        <v>0.8321511001095889</v>
+        <v>0.39134565</v>
       </c>
       <c r="J18">
-        <v>0.7548764528219182</v>
+        <v>3.4428622</v>
       </c>
       <c r="K18">
-        <v>0.7548764528219182</v>
+        <v>3.4428622</v>
       </c>
       <c r="L18">
-        <v>1.127535245342466</v>
+        <v>0.42160412</v>
       </c>
       <c r="M18">
-        <v>1.214935220024657</v>
+        <v>0.222452438</v>
       </c>
       <c r="N18">
-        <v>1.214935220024657</v>
+        <v>0.222452438</v>
       </c>
       <c r="O18">
-        <v>1.087340513386301</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P18">
-        <v>1.061582297623744</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q18">
-        <v>1.061582297623745</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R18">
-        <v>0.9849058364232879</v>
+        <v>1.832657319</v>
       </c>
       <c r="S18">
-        <v>0.9849058364232879</v>
+        <v>1.832657319</v>
       </c>
       <c r="T18">
-        <v>1.135378629355936</v>
+        <v>0.9378199343333332</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.341504682947369</v>
+        <v>0.21658931</v>
       </c>
       <c r="D19">
-        <v>2.313446413578948</v>
+        <v>3.4457045</v>
       </c>
       <c r="E19">
-        <v>2.313446413578948</v>
+        <v>3.4457045</v>
       </c>
       <c r="F19">
-        <v>0.4148450784210526</v>
+        <v>0.38954228</v>
       </c>
       <c r="G19">
-        <v>0.6632488847368421</v>
+        <v>0.3576419</v>
       </c>
       <c r="H19">
-        <v>0.08656499415263157</v>
+        <v>0.017301633</v>
       </c>
       <c r="I19">
-        <v>1.587143551578947</v>
+        <v>2.3283159</v>
       </c>
       <c r="J19">
-        <v>1.341504682947369</v>
+        <v>0.21658931</v>
       </c>
       <c r="K19">
-        <v>1.341504682947369</v>
+        <v>0.21658931</v>
       </c>
       <c r="L19">
-        <v>0.4148450784210526</v>
+        <v>0.38954228</v>
       </c>
       <c r="M19">
-        <v>1.364145746</v>
+        <v>1.91762339</v>
       </c>
       <c r="N19">
-        <v>1.364145746</v>
+        <v>1.91762339</v>
       </c>
       <c r="O19">
-        <v>1.438478347859649</v>
+        <v>2.054520893333333</v>
       </c>
       <c r="P19">
-        <v>1.356598724982456</v>
+        <v>1.35061203</v>
       </c>
       <c r="Q19">
-        <v>1.356598724982456</v>
+        <v>1.35061203</v>
       </c>
       <c r="R19">
-        <v>1.352825214473684</v>
+        <v>1.06710635</v>
       </c>
       <c r="S19">
-        <v>1.352825214473684</v>
+        <v>1.06710635</v>
       </c>
       <c r="T19">
-        <v>1.067792267569298</v>
+        <v>1.125849253833333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8159869238421055</v>
+        <v>0.7548764528219182</v>
       </c>
       <c r="D20">
-        <v>1.342166235863158</v>
+        <v>1.302335194706849</v>
       </c>
       <c r="E20">
-        <v>1.342166235863158</v>
+        <v>1.302335194706849</v>
       </c>
       <c r="F20">
-        <v>1.095994567894737</v>
+        <v>1.127535245342466</v>
       </c>
       <c r="G20">
-        <v>0.9822274357894737</v>
+        <v>0.9901251993150681</v>
       </c>
       <c r="H20">
-        <v>1.739638943468421</v>
+        <v>1.805248583839726</v>
       </c>
       <c r="I20">
-        <v>0.8413760448421054</v>
+        <v>0.8321511001095889</v>
       </c>
       <c r="J20">
-        <v>0.8159869238421055</v>
+        <v>0.7548764528219182</v>
       </c>
       <c r="K20">
-        <v>0.8159869238421055</v>
+        <v>0.7548764528219182</v>
       </c>
       <c r="L20">
-        <v>1.095994567894737</v>
+        <v>1.127535245342466</v>
       </c>
       <c r="M20">
-        <v>1.219080401878947</v>
+        <v>1.214935220024657</v>
       </c>
       <c r="N20">
-        <v>1.219080401878947</v>
+        <v>1.214935220024657</v>
       </c>
       <c r="O20">
-        <v>1.093178949533333</v>
+        <v>1.087340513386301</v>
       </c>
       <c r="P20">
-        <v>1.0847159092</v>
+        <v>1.061582297623744</v>
       </c>
       <c r="Q20">
-        <v>1.0847159092</v>
+        <v>1.061582297623745</v>
       </c>
       <c r="R20">
-        <v>1.017533662860526</v>
+        <v>0.9849058364232879</v>
       </c>
       <c r="S20">
-        <v>1.017533662860526</v>
+        <v>0.9849058364232879</v>
       </c>
       <c r="T20">
-        <v>1.13623169195</v>
+        <v>1.135378629355936</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.2404702404141349</v>
+        <v>1.341504682947369</v>
       </c>
       <c r="D21">
-        <v>3.635942637510909</v>
+        <v>2.313446413578948</v>
       </c>
       <c r="E21">
-        <v>3.635942637510909</v>
+        <v>2.313446413578948</v>
       </c>
       <c r="F21">
-        <v>0.4758779848770468</v>
+        <v>0.4148450784210526</v>
       </c>
       <c r="G21">
-        <v>0.4076798692637056</v>
+        <v>0.6632488847368421</v>
       </c>
       <c r="H21">
-        <v>0.04375825964634195</v>
+        <v>0.08656499415263157</v>
       </c>
       <c r="I21">
-        <v>2.166991480852296</v>
+        <v>1.587143551578947</v>
       </c>
       <c r="J21">
-        <v>0.2404702404141349</v>
+        <v>1.341504682947369</v>
       </c>
       <c r="K21">
-        <v>0.2404702404141349</v>
+        <v>1.341504682947369</v>
       </c>
       <c r="L21">
-        <v>0.4758779848770468</v>
+        <v>0.4148450784210526</v>
       </c>
       <c r="M21">
-        <v>2.055910311193978</v>
+        <v>1.364145746</v>
       </c>
       <c r="N21">
-        <v>2.055910311193978</v>
+        <v>1.364145746</v>
       </c>
       <c r="O21">
-        <v>2.09293736774675</v>
+        <v>1.438478347859649</v>
       </c>
       <c r="P21">
-        <v>1.45076362093403</v>
+        <v>1.356598724982456</v>
       </c>
       <c r="Q21">
-        <v>1.45076362093403</v>
+        <v>1.356598724982456</v>
       </c>
       <c r="R21">
-        <v>1.148190275804056</v>
+        <v>1.352825214473684</v>
       </c>
       <c r="S21">
-        <v>1.148190275804056</v>
+        <v>1.352825214473684</v>
       </c>
       <c r="T21">
-        <v>1.161786745427406</v>
+        <v>1.067792267569298</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8386491562959589</v>
+        <v>0.8159869238421055</v>
       </c>
       <c r="D22">
-        <v>1.139827550582419</v>
+        <v>1.342166235863158</v>
       </c>
       <c r="E22">
-        <v>1.139827550582419</v>
+        <v>1.342166235863158</v>
       </c>
       <c r="F22">
-        <v>0.9237306816719273</v>
+        <v>1.095994567894737</v>
       </c>
       <c r="G22">
-        <v>0.8973540345668158</v>
+        <v>0.9822274357894737</v>
       </c>
       <c r="H22">
-        <v>0.3732002823117419</v>
+        <v>1.739638943468421</v>
       </c>
       <c r="I22">
-        <v>1.351062220515084</v>
+        <v>0.8413760448421054</v>
       </c>
       <c r="J22">
-        <v>0.8386491562959589</v>
+        <v>0.8159869238421055</v>
       </c>
       <c r="K22">
-        <v>0.8386491562959589</v>
+        <v>0.8159869238421055</v>
       </c>
       <c r="L22">
-        <v>0.9237306816719273</v>
+        <v>1.095994567894737</v>
       </c>
       <c r="M22">
-        <v>1.031779116127173</v>
+        <v>1.219080401878947</v>
       </c>
       <c r="N22">
-        <v>1.031779116127173</v>
+        <v>1.219080401878947</v>
       </c>
       <c r="O22">
-        <v>1.13820681758981</v>
+        <v>1.093178949533333</v>
       </c>
       <c r="P22">
-        <v>0.967402462850102</v>
+        <v>1.0847159092</v>
       </c>
       <c r="Q22">
-        <v>0.9674024628501018</v>
+        <v>1.0847159092</v>
       </c>
       <c r="R22">
-        <v>0.9352141362115661</v>
+        <v>1.017533662860526</v>
       </c>
       <c r="S22">
-        <v>0.9352141362115661</v>
+        <v>1.017533662860526</v>
       </c>
       <c r="T22">
-        <v>0.9206373209906579</v>
+        <v>1.13623169195</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7997830995241429</v>
+        <v>0.2404702404141349</v>
       </c>
       <c r="D23">
-        <v>0.7496650844597287</v>
+        <v>3.635942637510909</v>
       </c>
       <c r="E23">
-        <v>0.7496650844597287</v>
+        <v>3.635942637510909</v>
       </c>
       <c r="F23">
-        <v>1.137698033442856</v>
+        <v>0.4758779848770468</v>
       </c>
       <c r="G23">
-        <v>1.044120691818265</v>
+        <v>0.4076798692637056</v>
       </c>
       <c r="H23">
-        <v>0.9597020113045045</v>
+        <v>0.04375825964634195</v>
       </c>
       <c r="I23">
-        <v>1.008178661707157</v>
+        <v>2.166991480852296</v>
       </c>
       <c r="J23">
-        <v>0.7997830995241429</v>
+        <v>0.2404702404141349</v>
       </c>
       <c r="K23">
-        <v>0.7997830995241429</v>
+        <v>0.2404702404141349</v>
       </c>
       <c r="L23">
-        <v>1.137698033442856</v>
+        <v>0.4758779848770468</v>
       </c>
       <c r="M23">
-        <v>0.9436815589512921</v>
+        <v>2.055910311193978</v>
       </c>
       <c r="N23">
-        <v>0.9436815589512921</v>
+        <v>2.055910311193978</v>
       </c>
       <c r="O23">
-        <v>0.9651805932032471</v>
+        <v>2.09293736774675</v>
       </c>
       <c r="P23">
-        <v>0.8957154058089091</v>
+        <v>1.45076362093403</v>
       </c>
       <c r="Q23">
-        <v>0.8957154058089092</v>
+        <v>1.45076362093403</v>
       </c>
       <c r="R23">
-        <v>0.8717323292377176</v>
+        <v>1.148190275804056</v>
       </c>
       <c r="S23">
-        <v>0.8717323292377176</v>
+        <v>1.148190275804056</v>
       </c>
       <c r="T23">
-        <v>0.9498579303761089</v>
+        <v>1.161786745427406</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.212438411798979</v>
+        <v>0.8386491562959589</v>
       </c>
       <c r="D24">
-        <v>1.268981835564235</v>
+        <v>1.139827550582419</v>
       </c>
       <c r="E24">
-        <v>1.268981835564235</v>
+        <v>1.139827550582419</v>
       </c>
       <c r="F24">
-        <v>0.830276611624532</v>
+        <v>0.9237306816719273</v>
       </c>
       <c r="G24">
-        <v>0.9406486785693515</v>
+        <v>0.8973540345668158</v>
       </c>
       <c r="H24">
-        <v>1.142429010762399</v>
+        <v>0.3732002823117419</v>
       </c>
       <c r="I24">
-        <v>0.9921217950800018</v>
+        <v>1.351062220515084</v>
       </c>
       <c r="J24">
-        <v>1.212438411798979</v>
+        <v>0.8386491562959589</v>
       </c>
       <c r="K24">
-        <v>1.212438411798979</v>
+        <v>0.8386491562959589</v>
       </c>
       <c r="L24">
-        <v>0.830276611624532</v>
+        <v>0.9237306816719273</v>
       </c>
       <c r="M24">
-        <v>1.049629223594384</v>
+        <v>1.031779116127173</v>
       </c>
       <c r="N24">
-        <v>1.049629223594384</v>
+        <v>1.031779116127173</v>
       </c>
       <c r="O24">
-        <v>1.030460080756256</v>
+        <v>1.13820681758981</v>
       </c>
       <c r="P24">
-        <v>1.103898952995915</v>
+        <v>0.967402462850102</v>
       </c>
       <c r="Q24">
-        <v>1.103898952995915</v>
+        <v>0.9674024628501018</v>
       </c>
       <c r="R24">
-        <v>1.131033817696681</v>
+        <v>0.9352141362115661</v>
       </c>
       <c r="S24">
-        <v>1.131033817696681</v>
+        <v>0.9352141362115661</v>
       </c>
       <c r="T24">
-        <v>1.064482723899916</v>
+        <v>0.9206373209906579</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.5393055635557686</v>
+        <v>0.7997830995241429</v>
       </c>
       <c r="D25">
-        <v>0.01541286061306674</v>
+        <v>0.7496650844597287</v>
       </c>
       <c r="E25">
-        <v>0.01541286061306674</v>
+        <v>0.7496650844597287</v>
       </c>
       <c r="F25">
-        <v>1.636972449125893</v>
+        <v>1.137698033442856</v>
       </c>
       <c r="G25">
-        <v>1.320394224057432</v>
+        <v>1.044120691818265</v>
       </c>
       <c r="H25">
-        <v>3.239353708501929</v>
+        <v>0.9597020113045045</v>
       </c>
       <c r="I25">
-        <v>0.1299080222276128</v>
+        <v>1.008178661707157</v>
       </c>
       <c r="J25">
-        <v>0.5393055635557686</v>
+        <v>0.7997830995241429</v>
       </c>
       <c r="K25">
-        <v>0.5393055635557686</v>
+        <v>0.7997830995241429</v>
       </c>
       <c r="L25">
-        <v>1.636972449125893</v>
+        <v>1.137698033442856</v>
       </c>
       <c r="M25">
-        <v>0.82619265486948</v>
+        <v>0.9436815589512921</v>
       </c>
       <c r="N25">
-        <v>0.82619265486948</v>
+        <v>0.9436815589512921</v>
       </c>
       <c r="O25">
-        <v>0.5940977773221909</v>
+        <v>0.9651805932032471</v>
       </c>
       <c r="P25">
-        <v>0.7305636244315762</v>
+        <v>0.8957154058089091</v>
       </c>
       <c r="Q25">
-        <v>0.7305636244315762</v>
+        <v>0.8957154058089092</v>
       </c>
       <c r="R25">
-        <v>0.6827491092126243</v>
+        <v>0.8717323292377176</v>
       </c>
       <c r="S25">
-        <v>0.6827491092126243</v>
+        <v>0.8717323292377176</v>
       </c>
       <c r="T25">
-        <v>1.146891138013617</v>
+        <v>0.9498579303761089</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.409578004869539</v>
+        <v>1.212438411798979</v>
       </c>
       <c r="D26">
-        <v>0.2282703272202107</v>
+        <v>1.268981835564235</v>
       </c>
       <c r="E26">
-        <v>0.2282703272202107</v>
+        <v>1.268981835564235</v>
       </c>
       <c r="F26">
-        <v>1.131783605331437</v>
+        <v>0.830276611624532</v>
       </c>
       <c r="G26">
-        <v>1.216750179240604</v>
+        <v>0.9406486785693515</v>
       </c>
       <c r="H26">
-        <v>0.6710635157005971</v>
+        <v>1.142429010762399</v>
       </c>
       <c r="I26">
-        <v>0.6777199424130483</v>
+        <v>0.9921217950800018</v>
       </c>
       <c r="J26">
-        <v>1.409578004869539</v>
+        <v>1.212438411798979</v>
       </c>
       <c r="K26">
-        <v>1.409578004869539</v>
+        <v>1.212438411798979</v>
       </c>
       <c r="L26">
-        <v>1.131783605331437</v>
+        <v>0.830276611624532</v>
       </c>
       <c r="M26">
-        <v>0.6800269662758236</v>
+        <v>1.049629223594384</v>
       </c>
       <c r="N26">
-        <v>0.6800269662758236</v>
+        <v>1.049629223594384</v>
       </c>
       <c r="O26">
-        <v>0.6792579583215651</v>
+        <v>1.030460080756256</v>
       </c>
       <c r="P26">
-        <v>0.9232106458070621</v>
+        <v>1.103898952995915</v>
       </c>
       <c r="Q26">
-        <v>0.9232106458070621</v>
+        <v>1.103898952995915</v>
       </c>
       <c r="R26">
-        <v>1.044802485572681</v>
+        <v>1.131033817696681</v>
       </c>
       <c r="S26">
-        <v>1.044802485572681</v>
+        <v>1.131033817696681</v>
       </c>
       <c r="T26">
-        <v>0.8891942624625727</v>
+        <v>1.064482723899916</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9664443216067362</v>
+        <v>0.5393055635557686</v>
       </c>
       <c r="D27">
-        <v>0.8799281347641448</v>
+        <v>0.01541286061306674</v>
       </c>
       <c r="E27">
-        <v>0.8799281347641448</v>
+        <v>0.01541286061306674</v>
       </c>
       <c r="F27">
-        <v>1.039176766960464</v>
+        <v>1.636972449125893</v>
       </c>
       <c r="G27">
-        <v>1.008743120901387</v>
+        <v>1.320394224057432</v>
       </c>
       <c r="H27">
-        <v>1.063381027047922</v>
+        <v>3.239353708501929</v>
       </c>
       <c r="I27">
-        <v>0.9820780324749064</v>
+        <v>0.1299080222276128</v>
       </c>
       <c r="J27">
-        <v>0.9664443216067362</v>
+        <v>0.5393055635557686</v>
       </c>
       <c r="K27">
-        <v>0.9664443216067362</v>
+        <v>0.5393055635557686</v>
       </c>
       <c r="L27">
-        <v>1.039176766960464</v>
+        <v>1.636972449125893</v>
       </c>
       <c r="M27">
-        <v>0.9595524508623045</v>
+        <v>0.82619265486948</v>
       </c>
       <c r="N27">
-        <v>0.9595524508623045</v>
+        <v>0.82619265486948</v>
       </c>
       <c r="O27">
-        <v>0.9670609780665052</v>
+        <v>0.5940977773221909</v>
       </c>
       <c r="P27">
-        <v>0.9618497411104484</v>
+        <v>0.7305636244315762</v>
       </c>
       <c r="Q27">
-        <v>0.9618497411104484</v>
+        <v>0.7305636244315762</v>
       </c>
       <c r="R27">
-        <v>0.9629983862345204</v>
+        <v>0.6827491092126243</v>
       </c>
       <c r="S27">
-        <v>0.9629983862345204</v>
+        <v>0.6827491092126243</v>
       </c>
       <c r="T27">
-        <v>0.9899585672925935</v>
+        <v>1.146891138013617</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.850064924454385</v>
+        <v>1.409578004869539</v>
       </c>
       <c r="D28">
-        <v>1.127388372737343</v>
+        <v>0.2282703272202107</v>
       </c>
       <c r="E28">
-        <v>1.127388372737343</v>
+        <v>0.2282703272202107</v>
       </c>
       <c r="F28">
-        <v>1.068205745052721</v>
+        <v>1.131783605331437</v>
       </c>
       <c r="G28">
-        <v>0.9782155479567316</v>
+        <v>1.216750179240604</v>
       </c>
       <c r="H28">
-        <v>1.13809338825602</v>
+        <v>0.6710635157005971</v>
       </c>
       <c r="I28">
-        <v>1.004131391984682</v>
+        <v>0.6777199424130483</v>
       </c>
       <c r="J28">
-        <v>0.850064924454385</v>
+        <v>1.409578004869539</v>
       </c>
       <c r="K28">
-        <v>0.850064924454385</v>
+        <v>1.409578004869539</v>
       </c>
       <c r="L28">
-        <v>1.068205745052721</v>
+        <v>1.131783605331437</v>
       </c>
       <c r="M28">
-        <v>1.097797058895032</v>
+        <v>0.6800269662758236</v>
       </c>
       <c r="N28">
-        <v>1.097797058895032</v>
+        <v>0.6800269662758236</v>
       </c>
       <c r="O28">
-        <v>1.066575169924915</v>
+        <v>0.6792579583215651</v>
       </c>
       <c r="P28">
-        <v>1.01521968074815</v>
+        <v>0.9232106458070621</v>
       </c>
       <c r="Q28">
-        <v>1.01521968074815</v>
+        <v>0.9232106458070621</v>
       </c>
       <c r="R28">
-        <v>0.9739309916747083</v>
+        <v>1.044802485572681</v>
       </c>
       <c r="S28">
-        <v>0.9739309916747083</v>
+        <v>1.044802485572681</v>
       </c>
       <c r="T28">
-        <v>1.02768322840698</v>
+        <v>0.8891942624625727</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9664443216067362</v>
+      </c>
+      <c r="D29">
+        <v>0.8799281347641448</v>
+      </c>
+      <c r="E29">
+        <v>0.8799281347641448</v>
+      </c>
+      <c r="F29">
+        <v>1.039176766960464</v>
+      </c>
+      <c r="G29">
+        <v>1.008743120901387</v>
+      </c>
+      <c r="H29">
+        <v>1.063381027047922</v>
+      </c>
+      <c r="I29">
+        <v>0.9820780324749064</v>
+      </c>
+      <c r="J29">
+        <v>0.9664443216067362</v>
+      </c>
+      <c r="K29">
+        <v>0.9664443216067362</v>
+      </c>
+      <c r="L29">
+        <v>1.039176766960464</v>
+      </c>
+      <c r="M29">
+        <v>0.9595524508623045</v>
+      </c>
+      <c r="N29">
+        <v>0.9595524508623045</v>
+      </c>
+      <c r="O29">
+        <v>0.9670609780665052</v>
+      </c>
+      <c r="P29">
+        <v>0.9618497411104484</v>
+      </c>
+      <c r="Q29">
+        <v>0.9618497411104484</v>
+      </c>
+      <c r="R29">
+        <v>0.9629983862345204</v>
+      </c>
+      <c r="S29">
+        <v>0.9629983862345204</v>
+      </c>
+      <c r="T29">
+        <v>0.9899585672925935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.850064924454385</v>
+      </c>
+      <c r="D30">
+        <v>1.127388372737343</v>
+      </c>
+      <c r="E30">
+        <v>1.127388372737343</v>
+      </c>
+      <c r="F30">
+        <v>1.068205745052721</v>
+      </c>
+      <c r="G30">
+        <v>0.9782155479567316</v>
+      </c>
+      <c r="H30">
+        <v>1.13809338825602</v>
+      </c>
+      <c r="I30">
+        <v>1.004131391984682</v>
+      </c>
+      <c r="J30">
+        <v>0.850064924454385</v>
+      </c>
+      <c r="K30">
+        <v>0.850064924454385</v>
+      </c>
+      <c r="L30">
+        <v>1.068205745052721</v>
+      </c>
+      <c r="M30">
+        <v>1.097797058895032</v>
+      </c>
+      <c r="N30">
+        <v>1.097797058895032</v>
+      </c>
+      <c r="O30">
+        <v>1.066575169924915</v>
+      </c>
+      <c r="P30">
+        <v>1.01521968074815</v>
+      </c>
+      <c r="Q30">
+        <v>1.01521968074815</v>
+      </c>
+      <c r="R30">
+        <v>0.9739309916747083</v>
+      </c>
+      <c r="S30">
+        <v>0.9739309916747083</v>
+      </c>
+      <c r="T30">
+        <v>1.02768322840698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.8804038564634685</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.671020857415538</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.671020857415538</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.8943972772203008</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.8545759653367958</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.377010916546527</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.094193284793078</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.8804038564634685</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.8804038564634685</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.8943972772203008</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.282709067317919</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.282709067317919</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.219870473142972</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.148607330366436</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.148607330366436</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.081556461890694</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.081556461890694</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.128600359629284</v>
       </c>
     </row>
